--- a/Input_Dados.xlsx
+++ b/Input_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandamelo/Documents/Developer/enduranceApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\OneDrive\Mestrado\Modelagem Matemática\TrabalhoFinal\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940EC68-EEDB-3E43-8FB6-A0ABBE88DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE71A61-76D6-4542-AC91-171D5FAA7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composicaonutricional" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>Referência</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Em qual quantidade?</t>
+  </si>
+  <si>
+    <t>Teor de Cl- (mg)</t>
+  </si>
+  <si>
+    <t>Sem peso</t>
   </si>
 </sst>
 </file>
@@ -557,23 +563,24 @@
   </sheetPr>
   <dimension ref="A1:AD1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M20"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="12" width="18.83203125" customWidth="1"/>
+    <col min="8" max="12" width="18.88671875" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +644,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -700,7 +707,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -763,7 +770,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -826,7 +833,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -889,7 +896,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -934,11 +941,9 @@
         <v>48</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="2">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -954,7 +959,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1017,7 +1022,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1062,11 +1067,9 @@
         <v>48</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1082,7 +1085,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1127,11 +1130,9 @@
         <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1147,7 +1148,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1211,7 +1212,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1275,7 +1276,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1338,7 +1339,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1402,7 +1403,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1465,7 +1466,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1651,7 +1652,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1714,7 +1715,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1776,7 +1777,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1838,7 +1839,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1869,7 +1870,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1900,7 +1901,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1931,12 +1932,9 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <f>12*25/3+1.22*E18</f>
-        <v>103.66</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1965,7 +1963,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1997,7 +1995,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2029,7 +2027,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2061,7 +2059,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2093,7 +2091,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2125,7 +2123,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2157,7 +2155,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2189,7 +2187,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2221,7 +2219,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2253,7 +2251,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2285,7 +2283,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2317,7 +2315,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2349,7 +2347,7 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2381,7 +2379,7 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
     </row>
-    <row r="38" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2413,7 +2411,7 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
     </row>
-    <row r="39" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2445,7 +2443,7 @@
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2477,7 +2475,7 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2509,7 +2507,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2541,7 +2539,7 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2573,7 +2571,7 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2605,7 +2603,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2637,7 +2635,7 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2669,7 +2667,7 @@
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2701,7 +2699,7 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2733,7 +2731,7 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2765,7 +2763,7 @@
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2797,7 +2795,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2829,7 +2827,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2861,7 +2859,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2893,7 +2891,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2925,7 +2923,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2957,7 +2955,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2989,7 +2987,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3021,7 +3019,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3053,7 +3051,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3085,7 +3083,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3117,7 +3115,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3149,7 +3147,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3181,7 +3179,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3213,7 +3211,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3245,7 +3243,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3277,7 +3275,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3309,7 +3307,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3341,7 +3339,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3373,7 +3371,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3405,7 +3403,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3437,7 +3435,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3469,7 +3467,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3501,7 +3499,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3533,7 +3531,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3565,7 +3563,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3597,7 +3595,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3629,7 +3627,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3661,7 +3659,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3693,7 +3691,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3725,7 +3723,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3757,7 +3755,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3789,7 +3787,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3821,7 +3819,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3853,7 +3851,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3885,7 +3883,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3917,7 +3915,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3949,7 +3947,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3981,7 +3979,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4013,7 +4011,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4045,7 +4043,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4077,7 +4075,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4109,7 +4107,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4141,7 +4139,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4173,7 +4171,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4205,7 +4203,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4237,7 +4235,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4269,7 +4267,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4301,7 +4299,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4333,7 +4331,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4365,7 +4363,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
     </row>
-    <row r="100" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4397,7 +4395,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
     </row>
-    <row r="101" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4429,7 +4427,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
     </row>
-    <row r="102" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4461,7 +4459,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
     </row>
-    <row r="103" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4493,7 +4491,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
     </row>
-    <row r="104" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4525,7 +4523,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
     </row>
-    <row r="105" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4557,7 +4555,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
     </row>
-    <row r="106" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4589,7 +4587,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
     </row>
-    <row r="107" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4621,7 +4619,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
     </row>
-    <row r="108" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4653,7 +4651,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
     </row>
-    <row r="109" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4685,7 +4683,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4717,7 +4715,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
     </row>
-    <row r="111" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4749,7 +4747,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
     </row>
-    <row r="112" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4781,7 +4779,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
     </row>
-    <row r="113" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4813,7 +4811,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
     </row>
-    <row r="114" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4845,7 +4843,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
     </row>
-    <row r="115" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4877,7 +4875,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
     </row>
-    <row r="116" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4909,7 +4907,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
     </row>
-    <row r="117" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4941,7 +4939,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
     </row>
-    <row r="118" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4973,7 +4971,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
     </row>
-    <row r="119" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5005,7 +5003,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
     </row>
-    <row r="120" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5037,7 +5035,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
     </row>
-    <row r="121" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5069,7 +5067,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
     </row>
-    <row r="122" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5101,7 +5099,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5133,7 +5131,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
     </row>
-    <row r="124" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5165,7 +5163,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
     </row>
-    <row r="125" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5197,7 +5195,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
     </row>
-    <row r="126" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5229,7 +5227,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
     </row>
-    <row r="127" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5261,7 +5259,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
     </row>
-    <row r="128" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5293,7 +5291,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
     </row>
-    <row r="129" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5325,7 +5323,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
     </row>
-    <row r="130" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5357,7 +5355,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
     </row>
-    <row r="131" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5389,7 +5387,7 @@
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
     </row>
-    <row r="132" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5421,7 +5419,7 @@
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
     </row>
-    <row r="133" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5453,7 +5451,7 @@
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
     </row>
-    <row r="134" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5485,7 +5483,7 @@
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
     </row>
-    <row r="135" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5517,7 +5515,7 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
     </row>
-    <row r="136" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5549,7 +5547,7 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
     </row>
-    <row r="137" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5581,7 +5579,7 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
     </row>
-    <row r="138" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5613,7 +5611,7 @@
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
     </row>
-    <row r="139" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5645,7 +5643,7 @@
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
     </row>
-    <row r="140" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5677,7 +5675,7 @@
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
     </row>
-    <row r="141" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5709,7 +5707,7 @@
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
     </row>
-    <row r="142" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5741,7 +5739,7 @@
       <c r="AC142" s="2"/>
       <c r="AD142" s="2"/>
     </row>
-    <row r="143" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5773,7 +5771,7 @@
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
     </row>
-    <row r="144" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5805,7 +5803,7 @@
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
     </row>
-    <row r="145" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5837,7 +5835,7 @@
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
     </row>
-    <row r="146" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5869,7 +5867,7 @@
       <c r="AC146" s="2"/>
       <c r="AD146" s="2"/>
     </row>
-    <row r="147" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5901,7 +5899,7 @@
       <c r="AC147" s="2"/>
       <c r="AD147" s="2"/>
     </row>
-    <row r="148" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5933,7 +5931,7 @@
       <c r="AC148" s="2"/>
       <c r="AD148" s="2"/>
     </row>
-    <row r="149" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5965,7 +5963,7 @@
       <c r="AC149" s="2"/>
       <c r="AD149" s="2"/>
     </row>
-    <row r="150" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5997,7 +5995,7 @@
       <c r="AC150" s="2"/>
       <c r="AD150" s="2"/>
     </row>
-    <row r="151" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6029,7 +6027,7 @@
       <c r="AC151" s="2"/>
       <c r="AD151" s="2"/>
     </row>
-    <row r="152" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6061,7 +6059,7 @@
       <c r="AC152" s="2"/>
       <c r="AD152" s="2"/>
     </row>
-    <row r="153" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6093,7 +6091,7 @@
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
     </row>
-    <row r="154" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6125,7 +6123,7 @@
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
     </row>
-    <row r="155" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6157,7 +6155,7 @@
       <c r="AC155" s="2"/>
       <c r="AD155" s="2"/>
     </row>
-    <row r="156" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6189,7 +6187,7 @@
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
     </row>
-    <row r="157" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6221,7 +6219,7 @@
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
     </row>
-    <row r="158" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6253,7 +6251,7 @@
       <c r="AC158" s="2"/>
       <c r="AD158" s="2"/>
     </row>
-    <row r="159" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6285,7 +6283,7 @@
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
     </row>
-    <row r="160" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6317,7 +6315,7 @@
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
     </row>
-    <row r="161" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6349,7 +6347,7 @@
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
     </row>
-    <row r="162" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6381,7 +6379,7 @@
       <c r="AC162" s="2"/>
       <c r="AD162" s="2"/>
     </row>
-    <row r="163" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6413,7 +6411,7 @@
       <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
     </row>
-    <row r="164" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6445,7 +6443,7 @@
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
     </row>
-    <row r="165" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6477,7 +6475,7 @@
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
     </row>
-    <row r="166" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6509,7 +6507,7 @@
       <c r="AC166" s="2"/>
       <c r="AD166" s="2"/>
     </row>
-    <row r="167" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6541,7 +6539,7 @@
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
     </row>
-    <row r="168" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6573,7 +6571,7 @@
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
     </row>
-    <row r="169" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6605,7 +6603,7 @@
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
     </row>
-    <row r="170" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6637,7 +6635,7 @@
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
     </row>
-    <row r="171" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6669,7 +6667,7 @@
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
     </row>
-    <row r="172" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6701,7 +6699,7 @@
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
     </row>
-    <row r="173" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6733,7 +6731,7 @@
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
     </row>
-    <row r="174" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6765,7 +6763,7 @@
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
     </row>
-    <row r="175" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6797,7 +6795,7 @@
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
     </row>
-    <row r="176" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6829,7 +6827,7 @@
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
     </row>
-    <row r="177" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6861,7 +6859,7 @@
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
     </row>
-    <row r="178" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6893,7 +6891,7 @@
       <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
     </row>
-    <row r="179" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6925,7 +6923,7 @@
       <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
     </row>
-    <row r="180" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6957,7 +6955,7 @@
       <c r="AC180" s="2"/>
       <c r="AD180" s="2"/>
     </row>
-    <row r="181" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6989,7 +6987,7 @@
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
     </row>
-    <row r="182" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7021,7 +7019,7 @@
       <c r="AC182" s="2"/>
       <c r="AD182" s="2"/>
     </row>
-    <row r="183" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7053,7 +7051,7 @@
       <c r="AC183" s="2"/>
       <c r="AD183" s="2"/>
     </row>
-    <row r="184" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7085,7 +7083,7 @@
       <c r="AC184" s="2"/>
       <c r="AD184" s="2"/>
     </row>
-    <row r="185" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7117,7 +7115,7 @@
       <c r="AC185" s="2"/>
       <c r="AD185" s="2"/>
     </row>
-    <row r="186" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7149,7 +7147,7 @@
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
     </row>
-    <row r="187" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7181,7 +7179,7 @@
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
     </row>
-    <row r="188" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7213,7 +7211,7 @@
       <c r="AC188" s="2"/>
       <c r="AD188" s="2"/>
     </row>
-    <row r="189" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7245,7 +7243,7 @@
       <c r="AC189" s="2"/>
       <c r="AD189" s="2"/>
     </row>
-    <row r="190" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7277,7 +7275,7 @@
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
     </row>
-    <row r="191" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7309,7 +7307,7 @@
       <c r="AC191" s="2"/>
       <c r="AD191" s="2"/>
     </row>
-    <row r="192" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7341,7 +7339,7 @@
       <c r="AC192" s="2"/>
       <c r="AD192" s="2"/>
     </row>
-    <row r="193" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7373,7 +7371,7 @@
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
     </row>
-    <row r="194" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7405,7 +7403,7 @@
       <c r="AC194" s="2"/>
       <c r="AD194" s="2"/>
     </row>
-    <row r="195" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7437,7 +7435,7 @@
       <c r="AC195" s="2"/>
       <c r="AD195" s="2"/>
     </row>
-    <row r="196" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7469,7 +7467,7 @@
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
     </row>
-    <row r="197" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7501,7 +7499,7 @@
       <c r="AC197" s="2"/>
       <c r="AD197" s="2"/>
     </row>
-    <row r="198" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7533,7 +7531,7 @@
       <c r="AC198" s="2"/>
       <c r="AD198" s="2"/>
     </row>
-    <row r="199" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7565,7 +7563,7 @@
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
     </row>
-    <row r="200" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7597,7 +7595,7 @@
       <c r="AC200" s="2"/>
       <c r="AD200" s="2"/>
     </row>
-    <row r="201" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7629,7 +7627,7 @@
       <c r="AC201" s="2"/>
       <c r="AD201" s="2"/>
     </row>
-    <row r="202" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7661,7 +7659,7 @@
       <c r="AC202" s="2"/>
       <c r="AD202" s="2"/>
     </row>
-    <row r="203" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7693,7 +7691,7 @@
       <c r="AC203" s="2"/>
       <c r="AD203" s="2"/>
     </row>
-    <row r="204" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7725,7 +7723,7 @@
       <c r="AC204" s="2"/>
       <c r="AD204" s="2"/>
     </row>
-    <row r="205" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7757,7 +7755,7 @@
       <c r="AC205" s="2"/>
       <c r="AD205" s="2"/>
     </row>
-    <row r="206" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7789,7 +7787,7 @@
       <c r="AC206" s="2"/>
       <c r="AD206" s="2"/>
     </row>
-    <row r="207" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7821,7 +7819,7 @@
       <c r="AC207" s="2"/>
       <c r="AD207" s="2"/>
     </row>
-    <row r="208" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7853,7 +7851,7 @@
       <c r="AC208" s="2"/>
       <c r="AD208" s="2"/>
     </row>
-    <row r="209" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7885,7 +7883,7 @@
       <c r="AC209" s="2"/>
       <c r="AD209" s="2"/>
     </row>
-    <row r="210" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7917,7 +7915,7 @@
       <c r="AC210" s="2"/>
       <c r="AD210" s="2"/>
     </row>
-    <row r="211" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7949,7 +7947,7 @@
       <c r="AC211" s="2"/>
       <c r="AD211" s="2"/>
     </row>
-    <row r="212" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7981,7 +7979,7 @@
       <c r="AC212" s="2"/>
       <c r="AD212" s="2"/>
     </row>
-    <row r="213" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8013,7 +8011,7 @@
       <c r="AC213" s="2"/>
       <c r="AD213" s="2"/>
     </row>
-    <row r="214" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8045,7 +8043,7 @@
       <c r="AC214" s="2"/>
       <c r="AD214" s="2"/>
     </row>
-    <row r="215" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8077,7 +8075,7 @@
       <c r="AC215" s="2"/>
       <c r="AD215" s="2"/>
     </row>
-    <row r="216" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8109,7 +8107,7 @@
       <c r="AC216" s="2"/>
       <c r="AD216" s="2"/>
     </row>
-    <row r="217" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8141,7 +8139,7 @@
       <c r="AC217" s="2"/>
       <c r="AD217" s="2"/>
     </row>
-    <row r="218" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8173,7 +8171,7 @@
       <c r="AC218" s="2"/>
       <c r="AD218" s="2"/>
     </row>
-    <row r="219" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8205,7 +8203,7 @@
       <c r="AC219" s="2"/>
       <c r="AD219" s="2"/>
     </row>
-    <row r="220" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8237,7 +8235,7 @@
       <c r="AC220" s="2"/>
       <c r="AD220" s="2"/>
     </row>
-    <row r="221" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8269,7 +8267,7 @@
       <c r="AC221" s="2"/>
       <c r="AD221" s="2"/>
     </row>
-    <row r="222" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8301,7 +8299,7 @@
       <c r="AC222" s="2"/>
       <c r="AD222" s="2"/>
     </row>
-    <row r="223" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8333,7 +8331,7 @@
       <c r="AC223" s="2"/>
       <c r="AD223" s="2"/>
     </row>
-    <row r="224" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8365,7 +8363,7 @@
       <c r="AC224" s="2"/>
       <c r="AD224" s="2"/>
     </row>
-    <row r="225" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8397,7 +8395,7 @@
       <c r="AC225" s="2"/>
       <c r="AD225" s="2"/>
     </row>
-    <row r="226" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8429,7 +8427,7 @@
       <c r="AC226" s="2"/>
       <c r="AD226" s="2"/>
     </row>
-    <row r="227" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8461,7 +8459,7 @@
       <c r="AC227" s="2"/>
       <c r="AD227" s="2"/>
     </row>
-    <row r="228" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8493,7 +8491,7 @@
       <c r="AC228" s="2"/>
       <c r="AD228" s="2"/>
     </row>
-    <row r="229" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8525,7 +8523,7 @@
       <c r="AC229" s="2"/>
       <c r="AD229" s="2"/>
     </row>
-    <row r="230" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8557,7 +8555,7 @@
       <c r="AC230" s="2"/>
       <c r="AD230" s="2"/>
     </row>
-    <row r="231" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8589,7 +8587,7 @@
       <c r="AC231" s="2"/>
       <c r="AD231" s="2"/>
     </row>
-    <row r="232" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8621,7 +8619,7 @@
       <c r="AC232" s="2"/>
       <c r="AD232" s="2"/>
     </row>
-    <row r="233" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8653,7 +8651,7 @@
       <c r="AC233" s="2"/>
       <c r="AD233" s="2"/>
     </row>
-    <row r="234" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8685,7 +8683,7 @@
       <c r="AC234" s="2"/>
       <c r="AD234" s="2"/>
     </row>
-    <row r="235" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8717,7 +8715,7 @@
       <c r="AC235" s="2"/>
       <c r="AD235" s="2"/>
     </row>
-    <row r="236" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8749,7 +8747,7 @@
       <c r="AC236" s="2"/>
       <c r="AD236" s="2"/>
     </row>
-    <row r="237" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8781,7 +8779,7 @@
       <c r="AC237" s="2"/>
       <c r="AD237" s="2"/>
     </row>
-    <row r="238" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8813,7 +8811,7 @@
       <c r="AC238" s="2"/>
       <c r="AD238" s="2"/>
     </row>
-    <row r="239" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8845,7 +8843,7 @@
       <c r="AC239" s="2"/>
       <c r="AD239" s="2"/>
     </row>
-    <row r="240" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8877,7 +8875,7 @@
       <c r="AC240" s="2"/>
       <c r="AD240" s="2"/>
     </row>
-    <row r="241" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8909,7 +8907,7 @@
       <c r="AC241" s="2"/>
       <c r="AD241" s="2"/>
     </row>
-    <row r="242" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8941,7 +8939,7 @@
       <c r="AC242" s="2"/>
       <c r="AD242" s="2"/>
     </row>
-    <row r="243" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8973,7 +8971,7 @@
       <c r="AC243" s="2"/>
       <c r="AD243" s="2"/>
     </row>
-    <row r="244" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -9005,7 +9003,7 @@
       <c r="AC244" s="2"/>
       <c r="AD244" s="2"/>
     </row>
-    <row r="245" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -9037,7 +9035,7 @@
       <c r="AC245" s="2"/>
       <c r="AD245" s="2"/>
     </row>
-    <row r="246" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -9069,7 +9067,7 @@
       <c r="AC246" s="2"/>
       <c r="AD246" s="2"/>
     </row>
-    <row r="247" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -9101,7 +9099,7 @@
       <c r="AC247" s="2"/>
       <c r="AD247" s="2"/>
     </row>
-    <row r="248" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -9133,7 +9131,7 @@
       <c r="AC248" s="2"/>
       <c r="AD248" s="2"/>
     </row>
-    <row r="249" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -9165,7 +9163,7 @@
       <c r="AC249" s="2"/>
       <c r="AD249" s="2"/>
     </row>
-    <row r="250" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -9197,7 +9195,7 @@
       <c r="AC250" s="2"/>
       <c r="AD250" s="2"/>
     </row>
-    <row r="251" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -9229,7 +9227,7 @@
       <c r="AC251" s="2"/>
       <c r="AD251" s="2"/>
     </row>
-    <row r="252" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9261,7 +9259,7 @@
       <c r="AC252" s="2"/>
       <c r="AD252" s="2"/>
     </row>
-    <row r="253" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9293,7 +9291,7 @@
       <c r="AC253" s="2"/>
       <c r="AD253" s="2"/>
     </row>
-    <row r="254" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9325,7 +9323,7 @@
       <c r="AC254" s="2"/>
       <c r="AD254" s="2"/>
     </row>
-    <row r="255" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9357,7 +9355,7 @@
       <c r="AC255" s="2"/>
       <c r="AD255" s="2"/>
     </row>
-    <row r="256" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9389,7 +9387,7 @@
       <c r="AC256" s="2"/>
       <c r="AD256" s="2"/>
     </row>
-    <row r="257" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9421,7 +9419,7 @@
       <c r="AC257" s="2"/>
       <c r="AD257" s="2"/>
     </row>
-    <row r="258" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9453,7 +9451,7 @@
       <c r="AC258" s="2"/>
       <c r="AD258" s="2"/>
     </row>
-    <row r="259" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9485,7 +9483,7 @@
       <c r="AC259" s="2"/>
       <c r="AD259" s="2"/>
     </row>
-    <row r="260" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9517,7 +9515,7 @@
       <c r="AC260" s="2"/>
       <c r="AD260" s="2"/>
     </row>
-    <row r="261" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9549,7 +9547,7 @@
       <c r="AC261" s="2"/>
       <c r="AD261" s="2"/>
     </row>
-    <row r="262" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9581,7 +9579,7 @@
       <c r="AC262" s="2"/>
       <c r="AD262" s="2"/>
     </row>
-    <row r="263" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9613,7 +9611,7 @@
       <c r="AC263" s="2"/>
       <c r="AD263" s="2"/>
     </row>
-    <row r="264" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9645,7 +9643,7 @@
       <c r="AC264" s="2"/>
       <c r="AD264" s="2"/>
     </row>
-    <row r="265" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9677,7 +9675,7 @@
       <c r="AC265" s="2"/>
       <c r="AD265" s="2"/>
     </row>
-    <row r="266" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9709,7 +9707,7 @@
       <c r="AC266" s="2"/>
       <c r="AD266" s="2"/>
     </row>
-    <row r="267" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9741,7 +9739,7 @@
       <c r="AC267" s="2"/>
       <c r="AD267" s="2"/>
     </row>
-    <row r="268" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9773,7 +9771,7 @@
       <c r="AC268" s="2"/>
       <c r="AD268" s="2"/>
     </row>
-    <row r="269" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9805,7 +9803,7 @@
       <c r="AC269" s="2"/>
       <c r="AD269" s="2"/>
     </row>
-    <row r="270" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9837,7 +9835,7 @@
       <c r="AC270" s="2"/>
       <c r="AD270" s="2"/>
     </row>
-    <row r="271" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9869,7 +9867,7 @@
       <c r="AC271" s="2"/>
       <c r="AD271" s="2"/>
     </row>
-    <row r="272" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9901,7 +9899,7 @@
       <c r="AC272" s="2"/>
       <c r="AD272" s="2"/>
     </row>
-    <row r="273" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9933,7 +9931,7 @@
       <c r="AC273" s="2"/>
       <c r="AD273" s="2"/>
     </row>
-    <row r="274" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9965,7 +9963,7 @@
       <c r="AC274" s="2"/>
       <c r="AD274" s="2"/>
     </row>
-    <row r="275" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9997,7 +9995,7 @@
       <c r="AC275" s="2"/>
       <c r="AD275" s="2"/>
     </row>
-    <row r="276" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -10029,7 +10027,7 @@
       <c r="AC276" s="2"/>
       <c r="AD276" s="2"/>
     </row>
-    <row r="277" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -10061,7 +10059,7 @@
       <c r="AC277" s="2"/>
       <c r="AD277" s="2"/>
     </row>
-    <row r="278" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -10093,7 +10091,7 @@
       <c r="AC278" s="2"/>
       <c r="AD278" s="2"/>
     </row>
-    <row r="279" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -10125,7 +10123,7 @@
       <c r="AC279" s="2"/>
       <c r="AD279" s="2"/>
     </row>
-    <row r="280" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -10157,7 +10155,7 @@
       <c r="AC280" s="2"/>
       <c r="AD280" s="2"/>
     </row>
-    <row r="281" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -10189,7 +10187,7 @@
       <c r="AC281" s="2"/>
       <c r="AD281" s="2"/>
     </row>
-    <row r="282" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -10221,7 +10219,7 @@
       <c r="AC282" s="2"/>
       <c r="AD282" s="2"/>
     </row>
-    <row r="283" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -10253,7 +10251,7 @@
       <c r="AC283" s="2"/>
       <c r="AD283" s="2"/>
     </row>
-    <row r="284" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10285,7 +10283,7 @@
       <c r="AC284" s="2"/>
       <c r="AD284" s="2"/>
     </row>
-    <row r="285" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -10317,7 +10315,7 @@
       <c r="AC285" s="2"/>
       <c r="AD285" s="2"/>
     </row>
-    <row r="286" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10349,7 +10347,7 @@
       <c r="AC286" s="2"/>
       <c r="AD286" s="2"/>
     </row>
-    <row r="287" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10381,7 +10379,7 @@
       <c r="AC287" s="2"/>
       <c r="AD287" s="2"/>
     </row>
-    <row r="288" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10413,7 +10411,7 @@
       <c r="AC288" s="2"/>
       <c r="AD288" s="2"/>
     </row>
-    <row r="289" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10445,7 +10443,7 @@
       <c r="AC289" s="2"/>
       <c r="AD289" s="2"/>
     </row>
-    <row r="290" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10477,7 +10475,7 @@
       <c r="AC290" s="2"/>
       <c r="AD290" s="2"/>
     </row>
-    <row r="291" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10509,7 +10507,7 @@
       <c r="AC291" s="2"/>
       <c r="AD291" s="2"/>
     </row>
-    <row r="292" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10541,7 +10539,7 @@
       <c r="AC292" s="2"/>
       <c r="AD292" s="2"/>
     </row>
-    <row r="293" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10573,7 +10571,7 @@
       <c r="AC293" s="2"/>
       <c r="AD293" s="2"/>
     </row>
-    <row r="294" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10605,7 +10603,7 @@
       <c r="AC294" s="2"/>
       <c r="AD294" s="2"/>
     </row>
-    <row r="295" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10637,7 +10635,7 @@
       <c r="AC295" s="2"/>
       <c r="AD295" s="2"/>
     </row>
-    <row r="296" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10669,7 +10667,7 @@
       <c r="AC296" s="2"/>
       <c r="AD296" s="2"/>
     </row>
-    <row r="297" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10701,7 +10699,7 @@
       <c r="AC297" s="2"/>
       <c r="AD297" s="2"/>
     </row>
-    <row r="298" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10733,7 +10731,7 @@
       <c r="AC298" s="2"/>
       <c r="AD298" s="2"/>
     </row>
-    <row r="299" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10765,7 +10763,7 @@
       <c r="AC299" s="2"/>
       <c r="AD299" s="2"/>
     </row>
-    <row r="300" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10797,7 +10795,7 @@
       <c r="AC300" s="2"/>
       <c r="AD300" s="2"/>
     </row>
-    <row r="301" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10829,7 +10827,7 @@
       <c r="AC301" s="2"/>
       <c r="AD301" s="2"/>
     </row>
-    <row r="302" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10861,7 +10859,7 @@
       <c r="AC302" s="2"/>
       <c r="AD302" s="2"/>
     </row>
-    <row r="303" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10893,7 +10891,7 @@
       <c r="AC303" s="2"/>
       <c r="AD303" s="2"/>
     </row>
-    <row r="304" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10925,7 +10923,7 @@
       <c r="AC304" s="2"/>
       <c r="AD304" s="2"/>
     </row>
-    <row r="305" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10957,7 +10955,7 @@
       <c r="AC305" s="2"/>
       <c r="AD305" s="2"/>
     </row>
-    <row r="306" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10989,7 +10987,7 @@
       <c r="AC306" s="2"/>
       <c r="AD306" s="2"/>
     </row>
-    <row r="307" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11021,7 +11019,7 @@
       <c r="AC307" s="2"/>
       <c r="AD307" s="2"/>
     </row>
-    <row r="308" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -11053,7 +11051,7 @@
       <c r="AC308" s="2"/>
       <c r="AD308" s="2"/>
     </row>
-    <row r="309" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11085,7 +11083,7 @@
       <c r="AC309" s="2"/>
       <c r="AD309" s="2"/>
     </row>
-    <row r="310" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -11117,7 +11115,7 @@
       <c r="AC310" s="2"/>
       <c r="AD310" s="2"/>
     </row>
-    <row r="311" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -11149,7 +11147,7 @@
       <c r="AC311" s="2"/>
       <c r="AD311" s="2"/>
     </row>
-    <row r="312" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -11181,7 +11179,7 @@
       <c r="AC312" s="2"/>
       <c r="AD312" s="2"/>
     </row>
-    <row r="313" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -11213,7 +11211,7 @@
       <c r="AC313" s="2"/>
       <c r="AD313" s="2"/>
     </row>
-    <row r="314" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11245,7 +11243,7 @@
       <c r="AC314" s="2"/>
       <c r="AD314" s="2"/>
     </row>
-    <row r="315" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -11277,7 +11275,7 @@
       <c r="AC315" s="2"/>
       <c r="AD315" s="2"/>
     </row>
-    <row r="316" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -11309,7 +11307,7 @@
       <c r="AC316" s="2"/>
       <c r="AD316" s="2"/>
     </row>
-    <row r="317" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -11341,7 +11339,7 @@
       <c r="AC317" s="2"/>
       <c r="AD317" s="2"/>
     </row>
-    <row r="318" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -11373,7 +11371,7 @@
       <c r="AC318" s="2"/>
       <c r="AD318" s="2"/>
     </row>
-    <row r="319" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11405,7 +11403,7 @@
       <c r="AC319" s="2"/>
       <c r="AD319" s="2"/>
     </row>
-    <row r="320" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -11437,7 +11435,7 @@
       <c r="AC320" s="2"/>
       <c r="AD320" s="2"/>
     </row>
-    <row r="321" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11469,7 +11467,7 @@
       <c r="AC321" s="2"/>
       <c r="AD321" s="2"/>
     </row>
-    <row r="322" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11501,7 +11499,7 @@
       <c r="AC322" s="2"/>
       <c r="AD322" s="2"/>
     </row>
-    <row r="323" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11533,7 +11531,7 @@
       <c r="AC323" s="2"/>
       <c r="AD323" s="2"/>
     </row>
-    <row r="324" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11565,7 +11563,7 @@
       <c r="AC324" s="2"/>
       <c r="AD324" s="2"/>
     </row>
-    <row r="325" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11597,7 +11595,7 @@
       <c r="AC325" s="2"/>
       <c r="AD325" s="2"/>
     </row>
-    <row r="326" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11629,7 +11627,7 @@
       <c r="AC326" s="2"/>
       <c r="AD326" s="2"/>
     </row>
-    <row r="327" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11661,7 +11659,7 @@
       <c r="AC327" s="2"/>
       <c r="AD327" s="2"/>
     </row>
-    <row r="328" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11693,7 +11691,7 @@
       <c r="AC328" s="2"/>
       <c r="AD328" s="2"/>
     </row>
-    <row r="329" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11725,7 +11723,7 @@
       <c r="AC329" s="2"/>
       <c r="AD329" s="2"/>
     </row>
-    <row r="330" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11757,7 +11755,7 @@
       <c r="AC330" s="2"/>
       <c r="AD330" s="2"/>
     </row>
-    <row r="331" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11789,7 +11787,7 @@
       <c r="AC331" s="2"/>
       <c r="AD331" s="2"/>
     </row>
-    <row r="332" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11821,7 +11819,7 @@
       <c r="AC332" s="2"/>
       <c r="AD332" s="2"/>
     </row>
-    <row r="333" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11853,7 +11851,7 @@
       <c r="AC333" s="2"/>
       <c r="AD333" s="2"/>
     </row>
-    <row r="334" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11885,7 +11883,7 @@
       <c r="AC334" s="2"/>
       <c r="AD334" s="2"/>
     </row>
-    <row r="335" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11917,7 +11915,7 @@
       <c r="AC335" s="2"/>
       <c r="AD335" s="2"/>
     </row>
-    <row r="336" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11949,7 +11947,7 @@
       <c r="AC336" s="2"/>
       <c r="AD336" s="2"/>
     </row>
-    <row r="337" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11981,7 +11979,7 @@
       <c r="AC337" s="2"/>
       <c r="AD337" s="2"/>
     </row>
-    <row r="338" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -12013,7 +12011,7 @@
       <c r="AC338" s="2"/>
       <c r="AD338" s="2"/>
     </row>
-    <row r="339" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12045,7 +12043,7 @@
       <c r="AC339" s="2"/>
       <c r="AD339" s="2"/>
     </row>
-    <row r="340" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -12077,7 +12075,7 @@
       <c r="AC340" s="2"/>
       <c r="AD340" s="2"/>
     </row>
-    <row r="341" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -12109,7 +12107,7 @@
       <c r="AC341" s="2"/>
       <c r="AD341" s="2"/>
     </row>
-    <row r="342" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -12141,7 +12139,7 @@
       <c r="AC342" s="2"/>
       <c r="AD342" s="2"/>
     </row>
-    <row r="343" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -12173,7 +12171,7 @@
       <c r="AC343" s="2"/>
       <c r="AD343" s="2"/>
     </row>
-    <row r="344" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12205,7 +12203,7 @@
       <c r="AC344" s="2"/>
       <c r="AD344" s="2"/>
     </row>
-    <row r="345" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12237,7 +12235,7 @@
       <c r="AC345" s="2"/>
       <c r="AD345" s="2"/>
     </row>
-    <row r="346" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12269,7 +12267,7 @@
       <c r="AC346" s="2"/>
       <c r="AD346" s="2"/>
     </row>
-    <row r="347" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12301,7 +12299,7 @@
       <c r="AC347" s="2"/>
       <c r="AD347" s="2"/>
     </row>
-    <row r="348" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12333,7 +12331,7 @@
       <c r="AC348" s="2"/>
       <c r="AD348" s="2"/>
     </row>
-    <row r="349" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12365,7 +12363,7 @@
       <c r="AC349" s="2"/>
       <c r="AD349" s="2"/>
     </row>
-    <row r="350" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -12397,7 +12395,7 @@
       <c r="AC350" s="2"/>
       <c r="AD350" s="2"/>
     </row>
-    <row r="351" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12429,7 +12427,7 @@
       <c r="AC351" s="2"/>
       <c r="AD351" s="2"/>
     </row>
-    <row r="352" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -12461,7 +12459,7 @@
       <c r="AC352" s="2"/>
       <c r="AD352" s="2"/>
     </row>
-    <row r="353" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -12493,7 +12491,7 @@
       <c r="AC353" s="2"/>
       <c r="AD353" s="2"/>
     </row>
-    <row r="354" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12525,7 +12523,7 @@
       <c r="AC354" s="2"/>
       <c r="AD354" s="2"/>
     </row>
-    <row r="355" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12557,7 +12555,7 @@
       <c r="AC355" s="2"/>
       <c r="AD355" s="2"/>
     </row>
-    <row r="356" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12589,7 +12587,7 @@
       <c r="AC356" s="2"/>
       <c r="AD356" s="2"/>
     </row>
-    <row r="357" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12621,7 +12619,7 @@
       <c r="AC357" s="2"/>
       <c r="AD357" s="2"/>
     </row>
-    <row r="358" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12653,7 +12651,7 @@
       <c r="AC358" s="2"/>
       <c r="AD358" s="2"/>
     </row>
-    <row r="359" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12685,7 +12683,7 @@
       <c r="AC359" s="2"/>
       <c r="AD359" s="2"/>
     </row>
-    <row r="360" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12717,7 +12715,7 @@
       <c r="AC360" s="2"/>
       <c r="AD360" s="2"/>
     </row>
-    <row r="361" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12749,7 +12747,7 @@
       <c r="AC361" s="2"/>
       <c r="AD361" s="2"/>
     </row>
-    <row r="362" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12781,7 +12779,7 @@
       <c r="AC362" s="2"/>
       <c r="AD362" s="2"/>
     </row>
-    <row r="363" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12813,7 +12811,7 @@
       <c r="AC363" s="2"/>
       <c r="AD363" s="2"/>
     </row>
-    <row r="364" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12845,7 +12843,7 @@
       <c r="AC364" s="2"/>
       <c r="AD364" s="2"/>
     </row>
-    <row r="365" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12877,7 +12875,7 @@
       <c r="AC365" s="2"/>
       <c r="AD365" s="2"/>
     </row>
-    <row r="366" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12909,7 +12907,7 @@
       <c r="AC366" s="2"/>
       <c r="AD366" s="2"/>
     </row>
-    <row r="367" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12941,7 +12939,7 @@
       <c r="AC367" s="2"/>
       <c r="AD367" s="2"/>
     </row>
-    <row r="368" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12973,7 +12971,7 @@
       <c r="AC368" s="2"/>
       <c r="AD368" s="2"/>
     </row>
-    <row r="369" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -13005,7 +13003,7 @@
       <c r="AC369" s="2"/>
       <c r="AD369" s="2"/>
     </row>
-    <row r="370" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -13037,7 +13035,7 @@
       <c r="AC370" s="2"/>
       <c r="AD370" s="2"/>
     </row>
-    <row r="371" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -13069,7 +13067,7 @@
       <c r="AC371" s="2"/>
       <c r="AD371" s="2"/>
     </row>
-    <row r="372" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -13101,7 +13099,7 @@
       <c r="AC372" s="2"/>
       <c r="AD372" s="2"/>
     </row>
-    <row r="373" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -13133,7 +13131,7 @@
       <c r="AC373" s="2"/>
       <c r="AD373" s="2"/>
     </row>
-    <row r="374" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -13165,7 +13163,7 @@
       <c r="AC374" s="2"/>
       <c r="AD374" s="2"/>
     </row>
-    <row r="375" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13197,7 +13195,7 @@
       <c r="AC375" s="2"/>
       <c r="AD375" s="2"/>
     </row>
-    <row r="376" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13229,7 +13227,7 @@
       <c r="AC376" s="2"/>
       <c r="AD376" s="2"/>
     </row>
-    <row r="377" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13261,7 +13259,7 @@
       <c r="AC377" s="2"/>
       <c r="AD377" s="2"/>
     </row>
-    <row r="378" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13293,7 +13291,7 @@
       <c r="AC378" s="2"/>
       <c r="AD378" s="2"/>
     </row>
-    <row r="379" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13325,7 +13323,7 @@
       <c r="AC379" s="2"/>
       <c r="AD379" s="2"/>
     </row>
-    <row r="380" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -13357,7 +13355,7 @@
       <c r="AC380" s="2"/>
       <c r="AD380" s="2"/>
     </row>
-    <row r="381" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13389,7 +13387,7 @@
       <c r="AC381" s="2"/>
       <c r="AD381" s="2"/>
     </row>
-    <row r="382" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13421,7 +13419,7 @@
       <c r="AC382" s="2"/>
       <c r="AD382" s="2"/>
     </row>
-    <row r="383" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13453,7 +13451,7 @@
       <c r="AC383" s="2"/>
       <c r="AD383" s="2"/>
     </row>
-    <row r="384" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13485,7 +13483,7 @@
       <c r="AC384" s="2"/>
       <c r="AD384" s="2"/>
     </row>
-    <row r="385" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13517,7 +13515,7 @@
       <c r="AC385" s="2"/>
       <c r="AD385" s="2"/>
     </row>
-    <row r="386" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13549,7 +13547,7 @@
       <c r="AC386" s="2"/>
       <c r="AD386" s="2"/>
     </row>
-    <row r="387" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13581,7 +13579,7 @@
       <c r="AC387" s="2"/>
       <c r="AD387" s="2"/>
     </row>
-    <row r="388" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13613,7 +13611,7 @@
       <c r="AC388" s="2"/>
       <c r="AD388" s="2"/>
     </row>
-    <row r="389" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13645,7 +13643,7 @@
       <c r="AC389" s="2"/>
       <c r="AD389" s="2"/>
     </row>
-    <row r="390" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13677,7 +13675,7 @@
       <c r="AC390" s="2"/>
       <c r="AD390" s="2"/>
     </row>
-    <row r="391" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13709,7 +13707,7 @@
       <c r="AC391" s="2"/>
       <c r="AD391" s="2"/>
     </row>
-    <row r="392" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13741,7 +13739,7 @@
       <c r="AC392" s="2"/>
       <c r="AD392" s="2"/>
     </row>
-    <row r="393" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13773,7 +13771,7 @@
       <c r="AC393" s="2"/>
       <c r="AD393" s="2"/>
     </row>
-    <row r="394" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13805,7 +13803,7 @@
       <c r="AC394" s="2"/>
       <c r="AD394" s="2"/>
     </row>
-    <row r="395" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13837,7 +13835,7 @@
       <c r="AC395" s="2"/>
       <c r="AD395" s="2"/>
     </row>
-    <row r="396" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13869,7 +13867,7 @@
       <c r="AC396" s="2"/>
       <c r="AD396" s="2"/>
     </row>
-    <row r="397" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13901,7 +13899,7 @@
       <c r="AC397" s="2"/>
       <c r="AD397" s="2"/>
     </row>
-    <row r="398" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13933,7 +13931,7 @@
       <c r="AC398" s="2"/>
       <c r="AD398" s="2"/>
     </row>
-    <row r="399" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13965,7 +13963,7 @@
       <c r="AC399" s="2"/>
       <c r="AD399" s="2"/>
     </row>
-    <row r="400" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13997,7 +13995,7 @@
       <c r="AC400" s="2"/>
       <c r="AD400" s="2"/>
     </row>
-    <row r="401" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -14029,7 +14027,7 @@
       <c r="AC401" s="2"/>
       <c r="AD401" s="2"/>
     </row>
-    <row r="402" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -14061,7 +14059,7 @@
       <c r="AC402" s="2"/>
       <c r="AD402" s="2"/>
     </row>
-    <row r="403" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -14093,7 +14091,7 @@
       <c r="AC403" s="2"/>
       <c r="AD403" s="2"/>
     </row>
-    <row r="404" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -14125,7 +14123,7 @@
       <c r="AC404" s="2"/>
       <c r="AD404" s="2"/>
     </row>
-    <row r="405" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -14157,7 +14155,7 @@
       <c r="AC405" s="2"/>
       <c r="AD405" s="2"/>
     </row>
-    <row r="406" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -14189,7 +14187,7 @@
       <c r="AC406" s="2"/>
       <c r="AD406" s="2"/>
     </row>
-    <row r="407" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -14221,7 +14219,7 @@
       <c r="AC407" s="2"/>
       <c r="AD407" s="2"/>
     </row>
-    <row r="408" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -14253,7 +14251,7 @@
       <c r="AC408" s="2"/>
       <c r="AD408" s="2"/>
     </row>
-    <row r="409" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -14285,7 +14283,7 @@
       <c r="AC409" s="2"/>
       <c r="AD409" s="2"/>
     </row>
-    <row r="410" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -14317,7 +14315,7 @@
       <c r="AC410" s="2"/>
       <c r="AD410" s="2"/>
     </row>
-    <row r="411" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -14349,7 +14347,7 @@
       <c r="AC411" s="2"/>
       <c r="AD411" s="2"/>
     </row>
-    <row r="412" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -14381,7 +14379,7 @@
       <c r="AC412" s="2"/>
       <c r="AD412" s="2"/>
     </row>
-    <row r="413" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -14413,7 +14411,7 @@
       <c r="AC413" s="2"/>
       <c r="AD413" s="2"/>
     </row>
-    <row r="414" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -14445,7 +14443,7 @@
       <c r="AC414" s="2"/>
       <c r="AD414" s="2"/>
     </row>
-    <row r="415" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -14477,7 +14475,7 @@
       <c r="AC415" s="2"/>
       <c r="AD415" s="2"/>
     </row>
-    <row r="416" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -14509,7 +14507,7 @@
       <c r="AC416" s="2"/>
       <c r="AD416" s="2"/>
     </row>
-    <row r="417" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14541,7 +14539,7 @@
       <c r="AC417" s="2"/>
       <c r="AD417" s="2"/>
     </row>
-    <row r="418" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14573,7 +14571,7 @@
       <c r="AC418" s="2"/>
       <c r="AD418" s="2"/>
     </row>
-    <row r="419" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14605,7 +14603,7 @@
       <c r="AC419" s="2"/>
       <c r="AD419" s="2"/>
     </row>
-    <row r="420" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14637,7 +14635,7 @@
       <c r="AC420" s="2"/>
       <c r="AD420" s="2"/>
     </row>
-    <row r="421" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -14669,7 +14667,7 @@
       <c r="AC421" s="2"/>
       <c r="AD421" s="2"/>
     </row>
-    <row r="422" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -14701,7 +14699,7 @@
       <c r="AC422" s="2"/>
       <c r="AD422" s="2"/>
     </row>
-    <row r="423" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -14733,7 +14731,7 @@
       <c r="AC423" s="2"/>
       <c r="AD423" s="2"/>
     </row>
-    <row r="424" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14765,7 +14763,7 @@
       <c r="AC424" s="2"/>
       <c r="AD424" s="2"/>
     </row>
-    <row r="425" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14797,7 +14795,7 @@
       <c r="AC425" s="2"/>
       <c r="AD425" s="2"/>
     </row>
-    <row r="426" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14829,7 +14827,7 @@
       <c r="AC426" s="2"/>
       <c r="AD426" s="2"/>
     </row>
-    <row r="427" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14861,7 +14859,7 @@
       <c r="AC427" s="2"/>
       <c r="AD427" s="2"/>
     </row>
-    <row r="428" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14893,7 +14891,7 @@
       <c r="AC428" s="2"/>
       <c r="AD428" s="2"/>
     </row>
-    <row r="429" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14925,7 +14923,7 @@
       <c r="AC429" s="2"/>
       <c r="AD429" s="2"/>
     </row>
-    <row r="430" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14957,7 +14955,7 @@
       <c r="AC430" s="2"/>
       <c r="AD430" s="2"/>
     </row>
-    <row r="431" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14989,7 +14987,7 @@
       <c r="AC431" s="2"/>
       <c r="AD431" s="2"/>
     </row>
-    <row r="432" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -15021,7 +15019,7 @@
       <c r="AC432" s="2"/>
       <c r="AD432" s="2"/>
     </row>
-    <row r="433" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -15053,7 +15051,7 @@
       <c r="AC433" s="2"/>
       <c r="AD433" s="2"/>
     </row>
-    <row r="434" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -15085,7 +15083,7 @@
       <c r="AC434" s="2"/>
       <c r="AD434" s="2"/>
     </row>
-    <row r="435" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -15117,7 +15115,7 @@
       <c r="AC435" s="2"/>
       <c r="AD435" s="2"/>
     </row>
-    <row r="436" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -15149,7 +15147,7 @@
       <c r="AC436" s="2"/>
       <c r="AD436" s="2"/>
     </row>
-    <row r="437" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -15181,7 +15179,7 @@
       <c r="AC437" s="2"/>
       <c r="AD437" s="2"/>
     </row>
-    <row r="438" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -15213,7 +15211,7 @@
       <c r="AC438" s="2"/>
       <c r="AD438" s="2"/>
     </row>
-    <row r="439" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -15245,7 +15243,7 @@
       <c r="AC439" s="2"/>
       <c r="AD439" s="2"/>
     </row>
-    <row r="440" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -15277,7 +15275,7 @@
       <c r="AC440" s="2"/>
       <c r="AD440" s="2"/>
     </row>
-    <row r="441" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -15309,7 +15307,7 @@
       <c r="AC441" s="2"/>
       <c r="AD441" s="2"/>
     </row>
-    <row r="442" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -15341,7 +15339,7 @@
       <c r="AC442" s="2"/>
       <c r="AD442" s="2"/>
     </row>
-    <row r="443" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -15373,7 +15371,7 @@
       <c r="AC443" s="2"/>
       <c r="AD443" s="2"/>
     </row>
-    <row r="444" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -15405,7 +15403,7 @@
       <c r="AC444" s="2"/>
       <c r="AD444" s="2"/>
     </row>
-    <row r="445" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -15437,7 +15435,7 @@
       <c r="AC445" s="2"/>
       <c r="AD445" s="2"/>
     </row>
-    <row r="446" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -15469,7 +15467,7 @@
       <c r="AC446" s="2"/>
       <c r="AD446" s="2"/>
     </row>
-    <row r="447" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -15501,7 +15499,7 @@
       <c r="AC447" s="2"/>
       <c r="AD447" s="2"/>
     </row>
-    <row r="448" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -15533,7 +15531,7 @@
       <c r="AC448" s="2"/>
       <c r="AD448" s="2"/>
     </row>
-    <row r="449" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -15565,7 +15563,7 @@
       <c r="AC449" s="2"/>
       <c r="AD449" s="2"/>
     </row>
-    <row r="450" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -15597,7 +15595,7 @@
       <c r="AC450" s="2"/>
       <c r="AD450" s="2"/>
     </row>
-    <row r="451" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -15629,7 +15627,7 @@
       <c r="AC451" s="2"/>
       <c r="AD451" s="2"/>
     </row>
-    <row r="452" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -15661,7 +15659,7 @@
       <c r="AC452" s="2"/>
       <c r="AD452" s="2"/>
     </row>
-    <row r="453" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -15693,7 +15691,7 @@
       <c r="AC453" s="2"/>
       <c r="AD453" s="2"/>
     </row>
-    <row r="454" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -15725,7 +15723,7 @@
       <c r="AC454" s="2"/>
       <c r="AD454" s="2"/>
     </row>
-    <row r="455" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -15757,7 +15755,7 @@
       <c r="AC455" s="2"/>
       <c r="AD455" s="2"/>
     </row>
-    <row r="456" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -15789,7 +15787,7 @@
       <c r="AC456" s="2"/>
       <c r="AD456" s="2"/>
     </row>
-    <row r="457" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -15821,7 +15819,7 @@
       <c r="AC457" s="2"/>
       <c r="AD457" s="2"/>
     </row>
-    <row r="458" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -15853,7 +15851,7 @@
       <c r="AC458" s="2"/>
       <c r="AD458" s="2"/>
     </row>
-    <row r="459" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15885,7 +15883,7 @@
       <c r="AC459" s="2"/>
       <c r="AD459" s="2"/>
     </row>
-    <row r="460" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15917,7 +15915,7 @@
       <c r="AC460" s="2"/>
       <c r="AD460" s="2"/>
     </row>
-    <row r="461" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15949,7 +15947,7 @@
       <c r="AC461" s="2"/>
       <c r="AD461" s="2"/>
     </row>
-    <row r="462" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15981,7 +15979,7 @@
       <c r="AC462" s="2"/>
       <c r="AD462" s="2"/>
     </row>
-    <row r="463" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -16013,7 +16011,7 @@
       <c r="AC463" s="2"/>
       <c r="AD463" s="2"/>
     </row>
-    <row r="464" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -16045,7 +16043,7 @@
       <c r="AC464" s="2"/>
       <c r="AD464" s="2"/>
     </row>
-    <row r="465" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -16077,7 +16075,7 @@
       <c r="AC465" s="2"/>
       <c r="AD465" s="2"/>
     </row>
-    <row r="466" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -16109,7 +16107,7 @@
       <c r="AC466" s="2"/>
       <c r="AD466" s="2"/>
     </row>
-    <row r="467" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -16141,7 +16139,7 @@
       <c r="AC467" s="2"/>
       <c r="AD467" s="2"/>
     </row>
-    <row r="468" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -16173,7 +16171,7 @@
       <c r="AC468" s="2"/>
       <c r="AD468" s="2"/>
     </row>
-    <row r="469" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -16205,7 +16203,7 @@
       <c r="AC469" s="2"/>
       <c r="AD469" s="2"/>
     </row>
-    <row r="470" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -16237,7 +16235,7 @@
       <c r="AC470" s="2"/>
       <c r="AD470" s="2"/>
     </row>
-    <row r="471" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -16269,7 +16267,7 @@
       <c r="AC471" s="2"/>
       <c r="AD471" s="2"/>
     </row>
-    <row r="472" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -16301,7 +16299,7 @@
       <c r="AC472" s="2"/>
       <c r="AD472" s="2"/>
     </row>
-    <row r="473" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -16333,7 +16331,7 @@
       <c r="AC473" s="2"/>
       <c r="AD473" s="2"/>
     </row>
-    <row r="474" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -16365,7 +16363,7 @@
       <c r="AC474" s="2"/>
       <c r="AD474" s="2"/>
     </row>
-    <row r="475" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -16397,7 +16395,7 @@
       <c r="AC475" s="2"/>
       <c r="AD475" s="2"/>
     </row>
-    <row r="476" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -16429,7 +16427,7 @@
       <c r="AC476" s="2"/>
       <c r="AD476" s="2"/>
     </row>
-    <row r="477" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -16461,7 +16459,7 @@
       <c r="AC477" s="2"/>
       <c r="AD477" s="2"/>
     </row>
-    <row r="478" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16493,7 +16491,7 @@
       <c r="AC478" s="2"/>
       <c r="AD478" s="2"/>
     </row>
-    <row r="479" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16525,7 +16523,7 @@
       <c r="AC479" s="2"/>
       <c r="AD479" s="2"/>
     </row>
-    <row r="480" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16557,7 +16555,7 @@
       <c r="AC480" s="2"/>
       <c r="AD480" s="2"/>
     </row>
-    <row r="481" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -16589,7 +16587,7 @@
       <c r="AC481" s="2"/>
       <c r="AD481" s="2"/>
     </row>
-    <row r="482" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -16621,7 +16619,7 @@
       <c r="AC482" s="2"/>
       <c r="AD482" s="2"/>
     </row>
-    <row r="483" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -16653,7 +16651,7 @@
       <c r="AC483" s="2"/>
       <c r="AD483" s="2"/>
     </row>
-    <row r="484" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -16685,7 +16683,7 @@
       <c r="AC484" s="2"/>
       <c r="AD484" s="2"/>
     </row>
-    <row r="485" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -16717,7 +16715,7 @@
       <c r="AC485" s="2"/>
       <c r="AD485" s="2"/>
     </row>
-    <row r="486" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -16749,7 +16747,7 @@
       <c r="AC486" s="2"/>
       <c r="AD486" s="2"/>
     </row>
-    <row r="487" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -16781,7 +16779,7 @@
       <c r="AC487" s="2"/>
       <c r="AD487" s="2"/>
     </row>
-    <row r="488" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -16813,7 +16811,7 @@
       <c r="AC488" s="2"/>
       <c r="AD488" s="2"/>
     </row>
-    <row r="489" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -16845,7 +16843,7 @@
       <c r="AC489" s="2"/>
       <c r="AD489" s="2"/>
     </row>
-    <row r="490" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -16877,7 +16875,7 @@
       <c r="AC490" s="2"/>
       <c r="AD490" s="2"/>
     </row>
-    <row r="491" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -16909,7 +16907,7 @@
       <c r="AC491" s="2"/>
       <c r="AD491" s="2"/>
     </row>
-    <row r="492" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -16941,7 +16939,7 @@
       <c r="AC492" s="2"/>
       <c r="AD492" s="2"/>
     </row>
-    <row r="493" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16973,7 +16971,7 @@
       <c r="AC493" s="2"/>
       <c r="AD493" s="2"/>
     </row>
-    <row r="494" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17005,7 +17003,7 @@
       <c r="AC494" s="2"/>
       <c r="AD494" s="2"/>
     </row>
-    <row r="495" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17037,7 +17035,7 @@
       <c r="AC495" s="2"/>
       <c r="AD495" s="2"/>
     </row>
-    <row r="496" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17069,7 +17067,7 @@
       <c r="AC496" s="2"/>
       <c r="AD496" s="2"/>
     </row>
-    <row r="497" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17101,7 +17099,7 @@
       <c r="AC497" s="2"/>
       <c r="AD497" s="2"/>
     </row>
-    <row r="498" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17133,7 +17131,7 @@
       <c r="AC498" s="2"/>
       <c r="AD498" s="2"/>
     </row>
-    <row r="499" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17165,7 +17163,7 @@
       <c r="AC499" s="2"/>
       <c r="AD499" s="2"/>
     </row>
-    <row r="500" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17197,7 +17195,7 @@
       <c r="AC500" s="2"/>
       <c r="AD500" s="2"/>
     </row>
-    <row r="501" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17229,7 +17227,7 @@
       <c r="AC501" s="2"/>
       <c r="AD501" s="2"/>
     </row>
-    <row r="502" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17261,7 +17259,7 @@
       <c r="AC502" s="2"/>
       <c r="AD502" s="2"/>
     </row>
-    <row r="503" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17293,7 +17291,7 @@
       <c r="AC503" s="2"/>
       <c r="AD503" s="2"/>
     </row>
-    <row r="504" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17325,7 +17323,7 @@
       <c r="AC504" s="2"/>
       <c r="AD504" s="2"/>
     </row>
-    <row r="505" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17357,7 +17355,7 @@
       <c r="AC505" s="2"/>
       <c r="AD505" s="2"/>
     </row>
-    <row r="506" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17389,7 +17387,7 @@
       <c r="AC506" s="2"/>
       <c r="AD506" s="2"/>
     </row>
-    <row r="507" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17421,7 +17419,7 @@
       <c r="AC507" s="2"/>
       <c r="AD507" s="2"/>
     </row>
-    <row r="508" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17453,7 +17451,7 @@
       <c r="AC508" s="2"/>
       <c r="AD508" s="2"/>
     </row>
-    <row r="509" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17485,7 +17483,7 @@
       <c r="AC509" s="2"/>
       <c r="AD509" s="2"/>
     </row>
-    <row r="510" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17517,7 +17515,7 @@
       <c r="AC510" s="2"/>
       <c r="AD510" s="2"/>
     </row>
-    <row r="511" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17549,7 +17547,7 @@
       <c r="AC511" s="2"/>
       <c r="AD511" s="2"/>
     </row>
-    <row r="512" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17581,7 +17579,7 @@
       <c r="AC512" s="2"/>
       <c r="AD512" s="2"/>
     </row>
-    <row r="513" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17613,7 +17611,7 @@
       <c r="AC513" s="2"/>
       <c r="AD513" s="2"/>
     </row>
-    <row r="514" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17645,7 +17643,7 @@
       <c r="AC514" s="2"/>
       <c r="AD514" s="2"/>
     </row>
-    <row r="515" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17677,7 +17675,7 @@
       <c r="AC515" s="2"/>
       <c r="AD515" s="2"/>
     </row>
-    <row r="516" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17709,7 +17707,7 @@
       <c r="AC516" s="2"/>
       <c r="AD516" s="2"/>
     </row>
-    <row r="517" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17741,7 +17739,7 @@
       <c r="AC517" s="2"/>
       <c r="AD517" s="2"/>
     </row>
-    <row r="518" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17773,7 +17771,7 @@
       <c r="AC518" s="2"/>
       <c r="AD518" s="2"/>
     </row>
-    <row r="519" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17805,7 +17803,7 @@
       <c r="AC519" s="2"/>
       <c r="AD519" s="2"/>
     </row>
-    <row r="520" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17837,7 +17835,7 @@
       <c r="AC520" s="2"/>
       <c r="AD520" s="2"/>
     </row>
-    <row r="521" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17869,7 +17867,7 @@
       <c r="AC521" s="2"/>
       <c r="AD521" s="2"/>
     </row>
-    <row r="522" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17901,7 +17899,7 @@
       <c r="AC522" s="2"/>
       <c r="AD522" s="2"/>
     </row>
-    <row r="523" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17933,7 +17931,7 @@
       <c r="AC523" s="2"/>
       <c r="AD523" s="2"/>
     </row>
-    <row r="524" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17965,7 +17963,7 @@
       <c r="AC524" s="2"/>
       <c r="AD524" s="2"/>
     </row>
-    <row r="525" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17997,7 +17995,7 @@
       <c r="AC525" s="2"/>
       <c r="AD525" s="2"/>
     </row>
-    <row r="526" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -18029,7 +18027,7 @@
       <c r="AC526" s="2"/>
       <c r="AD526" s="2"/>
     </row>
-    <row r="527" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -18061,7 +18059,7 @@
       <c r="AC527" s="2"/>
       <c r="AD527" s="2"/>
     </row>
-    <row r="528" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -18093,7 +18091,7 @@
       <c r="AC528" s="2"/>
       <c r="AD528" s="2"/>
     </row>
-    <row r="529" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -18125,7 +18123,7 @@
       <c r="AC529" s="2"/>
       <c r="AD529" s="2"/>
     </row>
-    <row r="530" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -18157,7 +18155,7 @@
       <c r="AC530" s="2"/>
       <c r="AD530" s="2"/>
     </row>
-    <row r="531" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -18189,7 +18187,7 @@
       <c r="AC531" s="2"/>
       <c r="AD531" s="2"/>
     </row>
-    <row r="532" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -18221,7 +18219,7 @@
       <c r="AC532" s="2"/>
       <c r="AD532" s="2"/>
     </row>
-    <row r="533" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -18253,7 +18251,7 @@
       <c r="AC533" s="2"/>
       <c r="AD533" s="2"/>
     </row>
-    <row r="534" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -18285,7 +18283,7 @@
       <c r="AC534" s="2"/>
       <c r="AD534" s="2"/>
     </row>
-    <row r="535" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -18317,7 +18315,7 @@
       <c r="AC535" s="2"/>
       <c r="AD535" s="2"/>
     </row>
-    <row r="536" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -18349,7 +18347,7 @@
       <c r="AC536" s="2"/>
       <c r="AD536" s="2"/>
     </row>
-    <row r="537" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -18381,7 +18379,7 @@
       <c r="AC537" s="2"/>
       <c r="AD537" s="2"/>
     </row>
-    <row r="538" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -18413,7 +18411,7 @@
       <c r="AC538" s="2"/>
       <c r="AD538" s="2"/>
     </row>
-    <row r="539" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -18445,7 +18443,7 @@
       <c r="AC539" s="2"/>
       <c r="AD539" s="2"/>
     </row>
-    <row r="540" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -18477,7 +18475,7 @@
       <c r="AC540" s="2"/>
       <c r="AD540" s="2"/>
     </row>
-    <row r="541" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -18509,7 +18507,7 @@
       <c r="AC541" s="2"/>
       <c r="AD541" s="2"/>
     </row>
-    <row r="542" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -18541,7 +18539,7 @@
       <c r="AC542" s="2"/>
       <c r="AD542" s="2"/>
     </row>
-    <row r="543" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -18573,7 +18571,7 @@
       <c r="AC543" s="2"/>
       <c r="AD543" s="2"/>
     </row>
-    <row r="544" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -18605,7 +18603,7 @@
       <c r="AC544" s="2"/>
       <c r="AD544" s="2"/>
     </row>
-    <row r="545" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -18637,7 +18635,7 @@
       <c r="AC545" s="2"/>
       <c r="AD545" s="2"/>
     </row>
-    <row r="546" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -18669,7 +18667,7 @@
       <c r="AC546" s="2"/>
       <c r="AD546" s="2"/>
     </row>
-    <row r="547" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -18701,7 +18699,7 @@
       <c r="AC547" s="2"/>
       <c r="AD547" s="2"/>
     </row>
-    <row r="548" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -18733,7 +18731,7 @@
       <c r="AC548" s="2"/>
       <c r="AD548" s="2"/>
     </row>
-    <row r="549" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -18765,7 +18763,7 @@
       <c r="AC549" s="2"/>
       <c r="AD549" s="2"/>
     </row>
-    <row r="550" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -18797,7 +18795,7 @@
       <c r="AC550" s="2"/>
       <c r="AD550" s="2"/>
     </row>
-    <row r="551" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -18829,7 +18827,7 @@
       <c r="AC551" s="2"/>
       <c r="AD551" s="2"/>
     </row>
-    <row r="552" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -18861,7 +18859,7 @@
       <c r="AC552" s="2"/>
       <c r="AD552" s="2"/>
     </row>
-    <row r="553" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -18893,7 +18891,7 @@
       <c r="AC553" s="2"/>
       <c r="AD553" s="2"/>
     </row>
-    <row r="554" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -18925,7 +18923,7 @@
       <c r="AC554" s="2"/>
       <c r="AD554" s="2"/>
     </row>
-    <row r="555" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -18957,7 +18955,7 @@
       <c r="AC555" s="2"/>
       <c r="AD555" s="2"/>
     </row>
-    <row r="556" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -18989,7 +18987,7 @@
       <c r="AC556" s="2"/>
       <c r="AD556" s="2"/>
     </row>
-    <row r="557" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -19021,7 +19019,7 @@
       <c r="AC557" s="2"/>
       <c r="AD557" s="2"/>
     </row>
-    <row r="558" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -19053,7 +19051,7 @@
       <c r="AC558" s="2"/>
       <c r="AD558" s="2"/>
     </row>
-    <row r="559" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -19085,7 +19083,7 @@
       <c r="AC559" s="2"/>
       <c r="AD559" s="2"/>
     </row>
-    <row r="560" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -19117,7 +19115,7 @@
       <c r="AC560" s="2"/>
       <c r="AD560" s="2"/>
     </row>
-    <row r="561" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -19149,7 +19147,7 @@
       <c r="AC561" s="2"/>
       <c r="AD561" s="2"/>
     </row>
-    <row r="562" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -19181,7 +19179,7 @@
       <c r="AC562" s="2"/>
       <c r="AD562" s="2"/>
     </row>
-    <row r="563" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -19213,7 +19211,7 @@
       <c r="AC563" s="2"/>
       <c r="AD563" s="2"/>
     </row>
-    <row r="564" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -19245,7 +19243,7 @@
       <c r="AC564" s="2"/>
       <c r="AD564" s="2"/>
     </row>
-    <row r="565" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -19277,7 +19275,7 @@
       <c r="AC565" s="2"/>
       <c r="AD565" s="2"/>
     </row>
-    <row r="566" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -19309,7 +19307,7 @@
       <c r="AC566" s="2"/>
       <c r="AD566" s="2"/>
     </row>
-    <row r="567" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -19341,7 +19339,7 @@
       <c r="AC567" s="2"/>
       <c r="AD567" s="2"/>
     </row>
-    <row r="568" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -19373,7 +19371,7 @@
       <c r="AC568" s="2"/>
       <c r="AD568" s="2"/>
     </row>
-    <row r="569" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -19405,7 +19403,7 @@
       <c r="AC569" s="2"/>
       <c r="AD569" s="2"/>
     </row>
-    <row r="570" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -19437,7 +19435,7 @@
       <c r="AC570" s="2"/>
       <c r="AD570" s="2"/>
     </row>
-    <row r="571" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -19469,7 +19467,7 @@
       <c r="AC571" s="2"/>
       <c r="AD571" s="2"/>
     </row>
-    <row r="572" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -19501,7 +19499,7 @@
       <c r="AC572" s="2"/>
       <c r="AD572" s="2"/>
     </row>
-    <row r="573" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -19533,7 +19531,7 @@
       <c r="AC573" s="2"/>
       <c r="AD573" s="2"/>
     </row>
-    <row r="574" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -19565,7 +19563,7 @@
       <c r="AC574" s="2"/>
       <c r="AD574" s="2"/>
     </row>
-    <row r="575" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -19597,7 +19595,7 @@
       <c r="AC575" s="2"/>
       <c r="AD575" s="2"/>
     </row>
-    <row r="576" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -19629,7 +19627,7 @@
       <c r="AC576" s="2"/>
       <c r="AD576" s="2"/>
     </row>
-    <row r="577" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -19661,7 +19659,7 @@
       <c r="AC577" s="2"/>
       <c r="AD577" s="2"/>
     </row>
-    <row r="578" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -19693,7 +19691,7 @@
       <c r="AC578" s="2"/>
       <c r="AD578" s="2"/>
     </row>
-    <row r="579" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -19725,7 +19723,7 @@
       <c r="AC579" s="2"/>
       <c r="AD579" s="2"/>
     </row>
-    <row r="580" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -19757,7 +19755,7 @@
       <c r="AC580" s="2"/>
       <c r="AD580" s="2"/>
     </row>
-    <row r="581" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -19789,7 +19787,7 @@
       <c r="AC581" s="2"/>
       <c r="AD581" s="2"/>
     </row>
-    <row r="582" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -19821,7 +19819,7 @@
       <c r="AC582" s="2"/>
       <c r="AD582" s="2"/>
     </row>
-    <row r="583" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -19853,7 +19851,7 @@
       <c r="AC583" s="2"/>
       <c r="AD583" s="2"/>
     </row>
-    <row r="584" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -19885,7 +19883,7 @@
       <c r="AC584" s="2"/>
       <c r="AD584" s="2"/>
     </row>
-    <row r="585" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19917,7 +19915,7 @@
       <c r="AC585" s="2"/>
       <c r="AD585" s="2"/>
     </row>
-    <row r="586" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19949,7 +19947,7 @@
       <c r="AC586" s="2"/>
       <c r="AD586" s="2"/>
     </row>
-    <row r="587" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19981,7 +19979,7 @@
       <c r="AC587" s="2"/>
       <c r="AD587" s="2"/>
     </row>
-    <row r="588" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -20013,7 +20011,7 @@
       <c r="AC588" s="2"/>
       <c r="AD588" s="2"/>
     </row>
-    <row r="589" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -20045,7 +20043,7 @@
       <c r="AC589" s="2"/>
       <c r="AD589" s="2"/>
     </row>
-    <row r="590" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -20077,7 +20075,7 @@
       <c r="AC590" s="2"/>
       <c r="AD590" s="2"/>
     </row>
-    <row r="591" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -20109,7 +20107,7 @@
       <c r="AC591" s="2"/>
       <c r="AD591" s="2"/>
     </row>
-    <row r="592" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -20141,7 +20139,7 @@
       <c r="AC592" s="2"/>
       <c r="AD592" s="2"/>
     </row>
-    <row r="593" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -20173,7 +20171,7 @@
       <c r="AC593" s="2"/>
       <c r="AD593" s="2"/>
     </row>
-    <row r="594" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -20205,7 +20203,7 @@
       <c r="AC594" s="2"/>
       <c r="AD594" s="2"/>
     </row>
-    <row r="595" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -20237,7 +20235,7 @@
       <c r="AC595" s="2"/>
       <c r="AD595" s="2"/>
     </row>
-    <row r="596" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -20269,7 +20267,7 @@
       <c r="AC596" s="2"/>
       <c r="AD596" s="2"/>
     </row>
-    <row r="597" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -20301,7 +20299,7 @@
       <c r="AC597" s="2"/>
       <c r="AD597" s="2"/>
     </row>
-    <row r="598" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -20333,7 +20331,7 @@
       <c r="AC598" s="2"/>
       <c r="AD598" s="2"/>
     </row>
-    <row r="599" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -20365,7 +20363,7 @@
       <c r="AC599" s="2"/>
       <c r="AD599" s="2"/>
     </row>
-    <row r="600" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -20397,7 +20395,7 @@
       <c r="AC600" s="2"/>
       <c r="AD600" s="2"/>
     </row>
-    <row r="601" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -20429,7 +20427,7 @@
       <c r="AC601" s="2"/>
       <c r="AD601" s="2"/>
     </row>
-    <row r="602" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -20461,7 +20459,7 @@
       <c r="AC602" s="2"/>
       <c r="AD602" s="2"/>
     </row>
-    <row r="603" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -20493,7 +20491,7 @@
       <c r="AC603" s="2"/>
       <c r="AD603" s="2"/>
     </row>
-    <row r="604" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -20525,7 +20523,7 @@
       <c r="AC604" s="2"/>
       <c r="AD604" s="2"/>
     </row>
-    <row r="605" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -20557,7 +20555,7 @@
       <c r="AC605" s="2"/>
       <c r="AD605" s="2"/>
     </row>
-    <row r="606" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -20589,7 +20587,7 @@
       <c r="AC606" s="2"/>
       <c r="AD606" s="2"/>
     </row>
-    <row r="607" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -20621,7 +20619,7 @@
       <c r="AC607" s="2"/>
       <c r="AD607" s="2"/>
     </row>
-    <row r="608" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -20653,7 +20651,7 @@
       <c r="AC608" s="2"/>
       <c r="AD608" s="2"/>
     </row>
-    <row r="609" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -20685,7 +20683,7 @@
       <c r="AC609" s="2"/>
       <c r="AD609" s="2"/>
     </row>
-    <row r="610" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -20717,7 +20715,7 @@
       <c r="AC610" s="2"/>
       <c r="AD610" s="2"/>
     </row>
-    <row r="611" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -20749,7 +20747,7 @@
       <c r="AC611" s="2"/>
       <c r="AD611" s="2"/>
     </row>
-    <row r="612" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -20781,7 +20779,7 @@
       <c r="AC612" s="2"/>
       <c r="AD612" s="2"/>
     </row>
-    <row r="613" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -20813,7 +20811,7 @@
       <c r="AC613" s="2"/>
       <c r="AD613" s="2"/>
     </row>
-    <row r="614" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -20845,7 +20843,7 @@
       <c r="AC614" s="2"/>
       <c r="AD614" s="2"/>
     </row>
-    <row r="615" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -20877,7 +20875,7 @@
       <c r="AC615" s="2"/>
       <c r="AD615" s="2"/>
     </row>
-    <row r="616" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -20909,7 +20907,7 @@
       <c r="AC616" s="2"/>
       <c r="AD616" s="2"/>
     </row>
-    <row r="617" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -20941,7 +20939,7 @@
       <c r="AC617" s="2"/>
       <c r="AD617" s="2"/>
     </row>
-    <row r="618" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -20973,7 +20971,7 @@
       <c r="AC618" s="2"/>
       <c r="AD618" s="2"/>
     </row>
-    <row r="619" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -21005,7 +21003,7 @@
       <c r="AC619" s="2"/>
       <c r="AD619" s="2"/>
     </row>
-    <row r="620" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -21037,7 +21035,7 @@
       <c r="AC620" s="2"/>
       <c r="AD620" s="2"/>
     </row>
-    <row r="621" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -21069,7 +21067,7 @@
       <c r="AC621" s="2"/>
       <c r="AD621" s="2"/>
     </row>
-    <row r="622" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -21101,7 +21099,7 @@
       <c r="AC622" s="2"/>
       <c r="AD622" s="2"/>
     </row>
-    <row r="623" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -21133,7 +21131,7 @@
       <c r="AC623" s="2"/>
       <c r="AD623" s="2"/>
     </row>
-    <row r="624" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -21165,7 +21163,7 @@
       <c r="AC624" s="2"/>
       <c r="AD624" s="2"/>
     </row>
-    <row r="625" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -21197,7 +21195,7 @@
       <c r="AC625" s="2"/>
       <c r="AD625" s="2"/>
     </row>
-    <row r="626" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -21229,7 +21227,7 @@
       <c r="AC626" s="2"/>
       <c r="AD626" s="2"/>
     </row>
-    <row r="627" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -21261,7 +21259,7 @@
       <c r="AC627" s="2"/>
       <c r="AD627" s="2"/>
     </row>
-    <row r="628" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -21293,7 +21291,7 @@
       <c r="AC628" s="2"/>
       <c r="AD628" s="2"/>
     </row>
-    <row r="629" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -21325,7 +21323,7 @@
       <c r="AC629" s="2"/>
       <c r="AD629" s="2"/>
     </row>
-    <row r="630" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -21357,7 +21355,7 @@
       <c r="AC630" s="2"/>
       <c r="AD630" s="2"/>
     </row>
-    <row r="631" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -21389,7 +21387,7 @@
       <c r="AC631" s="2"/>
       <c r="AD631" s="2"/>
     </row>
-    <row r="632" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -21421,7 +21419,7 @@
       <c r="AC632" s="2"/>
       <c r="AD632" s="2"/>
     </row>
-    <row r="633" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -21453,7 +21451,7 @@
       <c r="AC633" s="2"/>
       <c r="AD633" s="2"/>
     </row>
-    <row r="634" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -21485,7 +21483,7 @@
       <c r="AC634" s="2"/>
       <c r="AD634" s="2"/>
     </row>
-    <row r="635" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -21517,7 +21515,7 @@
       <c r="AC635" s="2"/>
       <c r="AD635" s="2"/>
     </row>
-    <row r="636" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -21549,7 +21547,7 @@
       <c r="AC636" s="2"/>
       <c r="AD636" s="2"/>
     </row>
-    <row r="637" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -21581,7 +21579,7 @@
       <c r="AC637" s="2"/>
       <c r="AD637" s="2"/>
     </row>
-    <row r="638" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -21613,7 +21611,7 @@
       <c r="AC638" s="2"/>
       <c r="AD638" s="2"/>
     </row>
-    <row r="639" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -21645,7 +21643,7 @@
       <c r="AC639" s="2"/>
       <c r="AD639" s="2"/>
     </row>
-    <row r="640" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -21677,7 +21675,7 @@
       <c r="AC640" s="2"/>
       <c r="AD640" s="2"/>
     </row>
-    <row r="641" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -21709,7 +21707,7 @@
       <c r="AC641" s="2"/>
       <c r="AD641" s="2"/>
     </row>
-    <row r="642" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -21741,7 +21739,7 @@
       <c r="AC642" s="2"/>
       <c r="AD642" s="2"/>
     </row>
-    <row r="643" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -21773,7 +21771,7 @@
       <c r="AC643" s="2"/>
       <c r="AD643" s="2"/>
     </row>
-    <row r="644" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -21805,7 +21803,7 @@
       <c r="AC644" s="2"/>
       <c r="AD644" s="2"/>
     </row>
-    <row r="645" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -21837,7 +21835,7 @@
       <c r="AC645" s="2"/>
       <c r="AD645" s="2"/>
     </row>
-    <row r="646" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -21869,7 +21867,7 @@
       <c r="AC646" s="2"/>
       <c r="AD646" s="2"/>
     </row>
-    <row r="647" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -21901,7 +21899,7 @@
       <c r="AC647" s="2"/>
       <c r="AD647" s="2"/>
     </row>
-    <row r="648" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -21933,7 +21931,7 @@
       <c r="AC648" s="2"/>
       <c r="AD648" s="2"/>
     </row>
-    <row r="649" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -21965,7 +21963,7 @@
       <c r="AC649" s="2"/>
       <c r="AD649" s="2"/>
     </row>
-    <row r="650" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -21997,7 +21995,7 @@
       <c r="AC650" s="2"/>
       <c r="AD650" s="2"/>
     </row>
-    <row r="651" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -22029,7 +22027,7 @@
       <c r="AC651" s="2"/>
       <c r="AD651" s="2"/>
     </row>
-    <row r="652" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -22061,7 +22059,7 @@
       <c r="AC652" s="2"/>
       <c r="AD652" s="2"/>
     </row>
-    <row r="653" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -22093,7 +22091,7 @@
       <c r="AC653" s="2"/>
       <c r="AD653" s="2"/>
     </row>
-    <row r="654" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -22125,7 +22123,7 @@
       <c r="AC654" s="2"/>
       <c r="AD654" s="2"/>
     </row>
-    <row r="655" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -22157,7 +22155,7 @@
       <c r="AC655" s="2"/>
       <c r="AD655" s="2"/>
     </row>
-    <row r="656" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -22189,7 +22187,7 @@
       <c r="AC656" s="2"/>
       <c r="AD656" s="2"/>
     </row>
-    <row r="657" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -22221,7 +22219,7 @@
       <c r="AC657" s="2"/>
       <c r="AD657" s="2"/>
     </row>
-    <row r="658" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -22253,7 +22251,7 @@
       <c r="AC658" s="2"/>
       <c r="AD658" s="2"/>
     </row>
-    <row r="659" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -22285,7 +22283,7 @@
       <c r="AC659" s="2"/>
       <c r="AD659" s="2"/>
     </row>
-    <row r="660" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -22317,7 +22315,7 @@
       <c r="AC660" s="2"/>
       <c r="AD660" s="2"/>
     </row>
-    <row r="661" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -22349,7 +22347,7 @@
       <c r="AC661" s="2"/>
       <c r="AD661" s="2"/>
     </row>
-    <row r="662" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -22381,7 +22379,7 @@
       <c r="AC662" s="2"/>
       <c r="AD662" s="2"/>
     </row>
-    <row r="663" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -22413,7 +22411,7 @@
       <c r="AC663" s="2"/>
       <c r="AD663" s="2"/>
     </row>
-    <row r="664" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -22445,7 +22443,7 @@
       <c r="AC664" s="2"/>
       <c r="AD664" s="2"/>
     </row>
-    <row r="665" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -22477,7 +22475,7 @@
       <c r="AC665" s="2"/>
       <c r="AD665" s="2"/>
     </row>
-    <row r="666" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -22509,7 +22507,7 @@
       <c r="AC666" s="2"/>
       <c r="AD666" s="2"/>
     </row>
-    <row r="667" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -22541,7 +22539,7 @@
       <c r="AC667" s="2"/>
       <c r="AD667" s="2"/>
     </row>
-    <row r="668" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -22573,7 +22571,7 @@
       <c r="AC668" s="2"/>
       <c r="AD668" s="2"/>
     </row>
-    <row r="669" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -22605,7 +22603,7 @@
       <c r="AC669" s="2"/>
       <c r="AD669" s="2"/>
     </row>
-    <row r="670" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -22637,7 +22635,7 @@
       <c r="AC670" s="2"/>
       <c r="AD670" s="2"/>
     </row>
-    <row r="671" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -22669,7 +22667,7 @@
       <c r="AC671" s="2"/>
       <c r="AD671" s="2"/>
     </row>
-    <row r="672" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -22701,7 +22699,7 @@
       <c r="AC672" s="2"/>
       <c r="AD672" s="2"/>
     </row>
-    <row r="673" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -22733,7 +22731,7 @@
       <c r="AC673" s="2"/>
       <c r="AD673" s="2"/>
     </row>
-    <row r="674" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -22765,7 +22763,7 @@
       <c r="AC674" s="2"/>
       <c r="AD674" s="2"/>
     </row>
-    <row r="675" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -22797,7 +22795,7 @@
       <c r="AC675" s="2"/>
       <c r="AD675" s="2"/>
     </row>
-    <row r="676" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -22829,7 +22827,7 @@
       <c r="AC676" s="2"/>
       <c r="AD676" s="2"/>
     </row>
-    <row r="677" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -22861,7 +22859,7 @@
       <c r="AC677" s="2"/>
       <c r="AD677" s="2"/>
     </row>
-    <row r="678" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -22893,7 +22891,7 @@
       <c r="AC678" s="2"/>
       <c r="AD678" s="2"/>
     </row>
-    <row r="679" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -22925,7 +22923,7 @@
       <c r="AC679" s="2"/>
       <c r="AD679" s="2"/>
     </row>
-    <row r="680" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -22957,7 +22955,7 @@
       <c r="AC680" s="2"/>
       <c r="AD680" s="2"/>
     </row>
-    <row r="681" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -22989,7 +22987,7 @@
       <c r="AC681" s="2"/>
       <c r="AD681" s="2"/>
     </row>
-    <row r="682" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -23021,7 +23019,7 @@
       <c r="AC682" s="2"/>
       <c r="AD682" s="2"/>
     </row>
-    <row r="683" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -23053,7 +23051,7 @@
       <c r="AC683" s="2"/>
       <c r="AD683" s="2"/>
     </row>
-    <row r="684" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -23085,7 +23083,7 @@
       <c r="AC684" s="2"/>
       <c r="AD684" s="2"/>
     </row>
-    <row r="685" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -23117,7 +23115,7 @@
       <c r="AC685" s="2"/>
       <c r="AD685" s="2"/>
     </row>
-    <row r="686" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -23149,7 +23147,7 @@
       <c r="AC686" s="2"/>
       <c r="AD686" s="2"/>
     </row>
-    <row r="687" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -23181,7 +23179,7 @@
       <c r="AC687" s="2"/>
       <c r="AD687" s="2"/>
     </row>
-    <row r="688" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -23213,7 +23211,7 @@
       <c r="AC688" s="2"/>
       <c r="AD688" s="2"/>
     </row>
-    <row r="689" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -23245,7 +23243,7 @@
       <c r="AC689" s="2"/>
       <c r="AD689" s="2"/>
     </row>
-    <row r="690" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -23277,7 +23275,7 @@
       <c r="AC690" s="2"/>
       <c r="AD690" s="2"/>
     </row>
-    <row r="691" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -23309,7 +23307,7 @@
       <c r="AC691" s="2"/>
       <c r="AD691" s="2"/>
     </row>
-    <row r="692" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -23341,7 +23339,7 @@
       <c r="AC692" s="2"/>
       <c r="AD692" s="2"/>
     </row>
-    <row r="693" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -23373,7 +23371,7 @@
       <c r="AC693" s="2"/>
       <c r="AD693" s="2"/>
     </row>
-    <row r="694" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -23405,7 +23403,7 @@
       <c r="AC694" s="2"/>
       <c r="AD694" s="2"/>
     </row>
-    <row r="695" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -23437,7 +23435,7 @@
       <c r="AC695" s="2"/>
       <c r="AD695" s="2"/>
     </row>
-    <row r="696" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -23469,7 +23467,7 @@
       <c r="AC696" s="2"/>
       <c r="AD696" s="2"/>
     </row>
-    <row r="697" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -23501,7 +23499,7 @@
       <c r="AC697" s="2"/>
       <c r="AD697" s="2"/>
     </row>
-    <row r="698" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -23533,7 +23531,7 @@
       <c r="AC698" s="2"/>
       <c r="AD698" s="2"/>
     </row>
-    <row r="699" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -23565,7 +23563,7 @@
       <c r="AC699" s="2"/>
       <c r="AD699" s="2"/>
     </row>
-    <row r="700" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -23597,7 +23595,7 @@
       <c r="AC700" s="2"/>
       <c r="AD700" s="2"/>
     </row>
-    <row r="701" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -23629,7 +23627,7 @@
       <c r="AC701" s="2"/>
       <c r="AD701" s="2"/>
     </row>
-    <row r="702" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -23661,7 +23659,7 @@
       <c r="AC702" s="2"/>
       <c r="AD702" s="2"/>
     </row>
-    <row r="703" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -23693,7 +23691,7 @@
       <c r="AC703" s="2"/>
       <c r="AD703" s="2"/>
     </row>
-    <row r="704" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -23725,7 +23723,7 @@
       <c r="AC704" s="2"/>
       <c r="AD704" s="2"/>
     </row>
-    <row r="705" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -23757,7 +23755,7 @@
       <c r="AC705" s="2"/>
       <c r="AD705" s="2"/>
     </row>
-    <row r="706" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -23789,7 +23787,7 @@
       <c r="AC706" s="2"/>
       <c r="AD706" s="2"/>
     </row>
-    <row r="707" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -23821,7 +23819,7 @@
       <c r="AC707" s="2"/>
       <c r="AD707" s="2"/>
     </row>
-    <row r="708" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -23853,7 +23851,7 @@
       <c r="AC708" s="2"/>
       <c r="AD708" s="2"/>
     </row>
-    <row r="709" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -23885,7 +23883,7 @@
       <c r="AC709" s="2"/>
       <c r="AD709" s="2"/>
     </row>
-    <row r="710" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -23917,7 +23915,7 @@
       <c r="AC710" s="2"/>
       <c r="AD710" s="2"/>
     </row>
-    <row r="711" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -23949,7 +23947,7 @@
       <c r="AC711" s="2"/>
       <c r="AD711" s="2"/>
     </row>
-    <row r="712" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -23981,7 +23979,7 @@
       <c r="AC712" s="2"/>
       <c r="AD712" s="2"/>
     </row>
-    <row r="713" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -24013,7 +24011,7 @@
       <c r="AC713" s="2"/>
       <c r="AD713" s="2"/>
     </row>
-    <row r="714" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -24045,7 +24043,7 @@
       <c r="AC714" s="2"/>
       <c r="AD714" s="2"/>
     </row>
-    <row r="715" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -24077,7 +24075,7 @@
       <c r="AC715" s="2"/>
       <c r="AD715" s="2"/>
     </row>
-    <row r="716" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -24109,7 +24107,7 @@
       <c r="AC716" s="2"/>
       <c r="AD716" s="2"/>
     </row>
-    <row r="717" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -24141,7 +24139,7 @@
       <c r="AC717" s="2"/>
       <c r="AD717" s="2"/>
     </row>
-    <row r="718" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -24173,7 +24171,7 @@
       <c r="AC718" s="2"/>
       <c r="AD718" s="2"/>
     </row>
-    <row r="719" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -24205,7 +24203,7 @@
       <c r="AC719" s="2"/>
       <c r="AD719" s="2"/>
     </row>
-    <row r="720" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -24237,7 +24235,7 @@
       <c r="AC720" s="2"/>
       <c r="AD720" s="2"/>
     </row>
-    <row r="721" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -24269,7 +24267,7 @@
       <c r="AC721" s="2"/>
       <c r="AD721" s="2"/>
     </row>
-    <row r="722" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -24301,7 +24299,7 @@
       <c r="AC722" s="2"/>
       <c r="AD722" s="2"/>
     </row>
-    <row r="723" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -24333,7 +24331,7 @@
       <c r="AC723" s="2"/>
       <c r="AD723" s="2"/>
     </row>
-    <row r="724" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -24365,7 +24363,7 @@
       <c r="AC724" s="2"/>
       <c r="AD724" s="2"/>
     </row>
-    <row r="725" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -24397,7 +24395,7 @@
       <c r="AC725" s="2"/>
       <c r="AD725" s="2"/>
     </row>
-    <row r="726" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -24429,7 +24427,7 @@
       <c r="AC726" s="2"/>
       <c r="AD726" s="2"/>
     </row>
-    <row r="727" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -24461,7 +24459,7 @@
       <c r="AC727" s="2"/>
       <c r="AD727" s="2"/>
     </row>
-    <row r="728" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -24493,7 +24491,7 @@
       <c r="AC728" s="2"/>
       <c r="AD728" s="2"/>
     </row>
-    <row r="729" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -24525,7 +24523,7 @@
       <c r="AC729" s="2"/>
       <c r="AD729" s="2"/>
     </row>
-    <row r="730" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -24557,7 +24555,7 @@
       <c r="AC730" s="2"/>
       <c r="AD730" s="2"/>
     </row>
-    <row r="731" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -24589,7 +24587,7 @@
       <c r="AC731" s="2"/>
       <c r="AD731" s="2"/>
     </row>
-    <row r="732" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -24621,7 +24619,7 @@
       <c r="AC732" s="2"/>
       <c r="AD732" s="2"/>
     </row>
-    <row r="733" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -24653,7 +24651,7 @@
       <c r="AC733" s="2"/>
       <c r="AD733" s="2"/>
     </row>
-    <row r="734" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -24685,7 +24683,7 @@
       <c r="AC734" s="2"/>
       <c r="AD734" s="2"/>
     </row>
-    <row r="735" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -24717,7 +24715,7 @@
       <c r="AC735" s="2"/>
       <c r="AD735" s="2"/>
     </row>
-    <row r="736" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -24749,7 +24747,7 @@
       <c r="AC736" s="2"/>
       <c r="AD736" s="2"/>
     </row>
-    <row r="737" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -24781,7 +24779,7 @@
       <c r="AC737" s="2"/>
       <c r="AD737" s="2"/>
     </row>
-    <row r="738" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -24813,7 +24811,7 @@
       <c r="AC738" s="2"/>
       <c r="AD738" s="2"/>
     </row>
-    <row r="739" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -24845,7 +24843,7 @@
       <c r="AC739" s="2"/>
       <c r="AD739" s="2"/>
     </row>
-    <row r="740" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -24877,7 +24875,7 @@
       <c r="AC740" s="2"/>
       <c r="AD740" s="2"/>
     </row>
-    <row r="741" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -24909,7 +24907,7 @@
       <c r="AC741" s="2"/>
       <c r="AD741" s="2"/>
     </row>
-    <row r="742" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -24941,7 +24939,7 @@
       <c r="AC742" s="2"/>
       <c r="AD742" s="2"/>
     </row>
-    <row r="743" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -24973,7 +24971,7 @@
       <c r="AC743" s="2"/>
       <c r="AD743" s="2"/>
     </row>
-    <row r="744" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -25005,7 +25003,7 @@
       <c r="AC744" s="2"/>
       <c r="AD744" s="2"/>
     </row>
-    <row r="745" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -25037,7 +25035,7 @@
       <c r="AC745" s="2"/>
       <c r="AD745" s="2"/>
     </row>
-    <row r="746" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -25069,7 +25067,7 @@
       <c r="AC746" s="2"/>
       <c r="AD746" s="2"/>
     </row>
-    <row r="747" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -25101,7 +25099,7 @@
       <c r="AC747" s="2"/>
       <c r="AD747" s="2"/>
     </row>
-    <row r="748" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -25133,7 +25131,7 @@
       <c r="AC748" s="2"/>
       <c r="AD748" s="2"/>
     </row>
-    <row r="749" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -25165,7 +25163,7 @@
       <c r="AC749" s="2"/>
       <c r="AD749" s="2"/>
     </row>
-    <row r="750" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -25197,7 +25195,7 @@
       <c r="AC750" s="2"/>
       <c r="AD750" s="2"/>
     </row>
-    <row r="751" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -25229,7 +25227,7 @@
       <c r="AC751" s="2"/>
       <c r="AD751" s="2"/>
     </row>
-    <row r="752" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -25261,7 +25259,7 @@
       <c r="AC752" s="2"/>
       <c r="AD752" s="2"/>
     </row>
-    <row r="753" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -25293,7 +25291,7 @@
       <c r="AC753" s="2"/>
       <c r="AD753" s="2"/>
     </row>
-    <row r="754" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -25325,7 +25323,7 @@
       <c r="AC754" s="2"/>
       <c r="AD754" s="2"/>
     </row>
-    <row r="755" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -25357,7 +25355,7 @@
       <c r="AC755" s="2"/>
       <c r="AD755" s="2"/>
     </row>
-    <row r="756" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -25389,7 +25387,7 @@
       <c r="AC756" s="2"/>
       <c r="AD756" s="2"/>
     </row>
-    <row r="757" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -25421,7 +25419,7 @@
       <c r="AC757" s="2"/>
       <c r="AD757" s="2"/>
     </row>
-    <row r="758" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -25453,7 +25451,7 @@
       <c r="AC758" s="2"/>
       <c r="AD758" s="2"/>
     </row>
-    <row r="759" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -25485,7 +25483,7 @@
       <c r="AC759" s="2"/>
       <c r="AD759" s="2"/>
     </row>
-    <row r="760" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -25517,7 +25515,7 @@
       <c r="AC760" s="2"/>
       <c r="AD760" s="2"/>
     </row>
-    <row r="761" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -25549,7 +25547,7 @@
       <c r="AC761" s="2"/>
       <c r="AD761" s="2"/>
     </row>
-    <row r="762" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -25581,7 +25579,7 @@
       <c r="AC762" s="2"/>
       <c r="AD762" s="2"/>
     </row>
-    <row r="763" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -25613,7 +25611,7 @@
       <c r="AC763" s="2"/>
       <c r="AD763" s="2"/>
     </row>
-    <row r="764" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -25645,7 +25643,7 @@
       <c r="AC764" s="2"/>
       <c r="AD764" s="2"/>
     </row>
-    <row r="765" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -25677,7 +25675,7 @@
       <c r="AC765" s="2"/>
       <c r="AD765" s="2"/>
     </row>
-    <row r="766" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -25709,7 +25707,7 @@
       <c r="AC766" s="2"/>
       <c r="AD766" s="2"/>
     </row>
-    <row r="767" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -25741,7 +25739,7 @@
       <c r="AC767" s="2"/>
       <c r="AD767" s="2"/>
     </row>
-    <row r="768" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -25773,7 +25771,7 @@
       <c r="AC768" s="2"/>
       <c r="AD768" s="2"/>
     </row>
-    <row r="769" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -25805,7 +25803,7 @@
       <c r="AC769" s="2"/>
       <c r="AD769" s="2"/>
     </row>
-    <row r="770" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -25837,7 +25835,7 @@
       <c r="AC770" s="2"/>
       <c r="AD770" s="2"/>
     </row>
-    <row r="771" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -25869,7 +25867,7 @@
       <c r="AC771" s="2"/>
       <c r="AD771" s="2"/>
     </row>
-    <row r="772" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -25901,7 +25899,7 @@
       <c r="AC772" s="2"/>
       <c r="AD772" s="2"/>
     </row>
-    <row r="773" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -25933,7 +25931,7 @@
       <c r="AC773" s="2"/>
       <c r="AD773" s="2"/>
     </row>
-    <row r="774" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -25965,7 +25963,7 @@
       <c r="AC774" s="2"/>
       <c r="AD774" s="2"/>
     </row>
-    <row r="775" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -25997,7 +25995,7 @@
       <c r="AC775" s="2"/>
       <c r="AD775" s="2"/>
     </row>
-    <row r="776" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -26029,7 +26027,7 @@
       <c r="AC776" s="2"/>
       <c r="AD776" s="2"/>
     </row>
-    <row r="777" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -26061,7 +26059,7 @@
       <c r="AC777" s="2"/>
       <c r="AD777" s="2"/>
     </row>
-    <row r="778" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -26093,7 +26091,7 @@
       <c r="AC778" s="2"/>
       <c r="AD778" s="2"/>
     </row>
-    <row r="779" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -26125,7 +26123,7 @@
       <c r="AC779" s="2"/>
       <c r="AD779" s="2"/>
     </row>
-    <row r="780" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -26157,7 +26155,7 @@
       <c r="AC780" s="2"/>
       <c r="AD780" s="2"/>
     </row>
-    <row r="781" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -26189,7 +26187,7 @@
       <c r="AC781" s="2"/>
       <c r="AD781" s="2"/>
     </row>
-    <row r="782" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -26221,7 +26219,7 @@
       <c r="AC782" s="2"/>
       <c r="AD782" s="2"/>
     </row>
-    <row r="783" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -26253,7 +26251,7 @@
       <c r="AC783" s="2"/>
       <c r="AD783" s="2"/>
     </row>
-    <row r="784" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -26285,7 +26283,7 @@
       <c r="AC784" s="2"/>
       <c r="AD784" s="2"/>
     </row>
-    <row r="785" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -26317,7 +26315,7 @@
       <c r="AC785" s="2"/>
       <c r="AD785" s="2"/>
     </row>
-    <row r="786" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -26349,7 +26347,7 @@
       <c r="AC786" s="2"/>
       <c r="AD786" s="2"/>
     </row>
-    <row r="787" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -26381,7 +26379,7 @@
       <c r="AC787" s="2"/>
       <c r="AD787" s="2"/>
     </row>
-    <row r="788" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -26413,7 +26411,7 @@
       <c r="AC788" s="2"/>
       <c r="AD788" s="2"/>
     </row>
-    <row r="789" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -26445,7 +26443,7 @@
       <c r="AC789" s="2"/>
       <c r="AD789" s="2"/>
     </row>
-    <row r="790" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -26477,7 +26475,7 @@
       <c r="AC790" s="2"/>
       <c r="AD790" s="2"/>
     </row>
-    <row r="791" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -26509,7 +26507,7 @@
       <c r="AC791" s="2"/>
       <c r="AD791" s="2"/>
     </row>
-    <row r="792" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -26541,7 +26539,7 @@
       <c r="AC792" s="2"/>
       <c r="AD792" s="2"/>
     </row>
-    <row r="793" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -26573,7 +26571,7 @@
       <c r="AC793" s="2"/>
       <c r="AD793" s="2"/>
     </row>
-    <row r="794" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -26605,7 +26603,7 @@
       <c r="AC794" s="2"/>
       <c r="AD794" s="2"/>
     </row>
-    <row r="795" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -26637,7 +26635,7 @@
       <c r="AC795" s="2"/>
       <c r="AD795" s="2"/>
     </row>
-    <row r="796" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -26669,7 +26667,7 @@
       <c r="AC796" s="2"/>
       <c r="AD796" s="2"/>
     </row>
-    <row r="797" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -26701,7 +26699,7 @@
       <c r="AC797" s="2"/>
       <c r="AD797" s="2"/>
     </row>
-    <row r="798" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -26733,7 +26731,7 @@
       <c r="AC798" s="2"/>
       <c r="AD798" s="2"/>
     </row>
-    <row r="799" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -26765,7 +26763,7 @@
       <c r="AC799" s="2"/>
       <c r="AD799" s="2"/>
     </row>
-    <row r="800" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -26797,7 +26795,7 @@
       <c r="AC800" s="2"/>
       <c r="AD800" s="2"/>
     </row>
-    <row r="801" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -26829,7 +26827,7 @@
       <c r="AC801" s="2"/>
       <c r="AD801" s="2"/>
     </row>
-    <row r="802" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -26861,7 +26859,7 @@
       <c r="AC802" s="2"/>
       <c r="AD802" s="2"/>
     </row>
-    <row r="803" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -26893,7 +26891,7 @@
       <c r="AC803" s="2"/>
       <c r="AD803" s="2"/>
     </row>
-    <row r="804" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -26925,7 +26923,7 @@
       <c r="AC804" s="2"/>
       <c r="AD804" s="2"/>
     </row>
-    <row r="805" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -26957,7 +26955,7 @@
       <c r="AC805" s="2"/>
       <c r="AD805" s="2"/>
     </row>
-    <row r="806" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -26989,7 +26987,7 @@
       <c r="AC806" s="2"/>
       <c r="AD806" s="2"/>
     </row>
-    <row r="807" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -27021,7 +27019,7 @@
       <c r="AC807" s="2"/>
       <c r="AD807" s="2"/>
     </row>
-    <row r="808" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -27053,7 +27051,7 @@
       <c r="AC808" s="2"/>
       <c r="AD808" s="2"/>
     </row>
-    <row r="809" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -27085,7 +27083,7 @@
       <c r="AC809" s="2"/>
       <c r="AD809" s="2"/>
     </row>
-    <row r="810" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -27117,7 +27115,7 @@
       <c r="AC810" s="2"/>
       <c r="AD810" s="2"/>
     </row>
-    <row r="811" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -27149,7 +27147,7 @@
       <c r="AC811" s="2"/>
       <c r="AD811" s="2"/>
     </row>
-    <row r="812" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -27181,7 +27179,7 @@
       <c r="AC812" s="2"/>
       <c r="AD812" s="2"/>
     </row>
-    <row r="813" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -27213,7 +27211,7 @@
       <c r="AC813" s="2"/>
       <c r="AD813" s="2"/>
     </row>
-    <row r="814" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -27245,7 +27243,7 @@
       <c r="AC814" s="2"/>
       <c r="AD814" s="2"/>
     </row>
-    <row r="815" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -27277,7 +27275,7 @@
       <c r="AC815" s="2"/>
       <c r="AD815" s="2"/>
     </row>
-    <row r="816" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -27309,7 +27307,7 @@
       <c r="AC816" s="2"/>
       <c r="AD816" s="2"/>
     </row>
-    <row r="817" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -27341,7 +27339,7 @@
       <c r="AC817" s="2"/>
       <c r="AD817" s="2"/>
     </row>
-    <row r="818" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -27373,7 +27371,7 @@
       <c r="AC818" s="2"/>
       <c r="AD818" s="2"/>
     </row>
-    <row r="819" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -27405,7 +27403,7 @@
       <c r="AC819" s="2"/>
       <c r="AD819" s="2"/>
     </row>
-    <row r="820" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -27437,7 +27435,7 @@
       <c r="AC820" s="2"/>
       <c r="AD820" s="2"/>
     </row>
-    <row r="821" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -27469,7 +27467,7 @@
       <c r="AC821" s="2"/>
       <c r="AD821" s="2"/>
     </row>
-    <row r="822" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -27501,7 +27499,7 @@
       <c r="AC822" s="2"/>
       <c r="AD822" s="2"/>
     </row>
-    <row r="823" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -27533,7 +27531,7 @@
       <c r="AC823" s="2"/>
       <c r="AD823" s="2"/>
     </row>
-    <row r="824" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -27565,7 +27563,7 @@
       <c r="AC824" s="2"/>
       <c r="AD824" s="2"/>
     </row>
-    <row r="825" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -27597,7 +27595,7 @@
       <c r="AC825" s="2"/>
       <c r="AD825" s="2"/>
     </row>
-    <row r="826" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -27629,7 +27627,7 @@
       <c r="AC826" s="2"/>
       <c r="AD826" s="2"/>
     </row>
-    <row r="827" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -27661,7 +27659,7 @@
       <c r="AC827" s="2"/>
       <c r="AD827" s="2"/>
     </row>
-    <row r="828" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -27693,7 +27691,7 @@
       <c r="AC828" s="2"/>
       <c r="AD828" s="2"/>
     </row>
-    <row r="829" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -27725,7 +27723,7 @@
       <c r="AC829" s="2"/>
       <c r="AD829" s="2"/>
     </row>
-    <row r="830" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -27757,7 +27755,7 @@
       <c r="AC830" s="2"/>
       <c r="AD830" s="2"/>
     </row>
-    <row r="831" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -27789,7 +27787,7 @@
       <c r="AC831" s="2"/>
       <c r="AD831" s="2"/>
     </row>
-    <row r="832" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -27821,7 +27819,7 @@
       <c r="AC832" s="2"/>
       <c r="AD832" s="2"/>
     </row>
-    <row r="833" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -27853,7 +27851,7 @@
       <c r="AC833" s="2"/>
       <c r="AD833" s="2"/>
     </row>
-    <row r="834" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -27885,7 +27883,7 @@
       <c r="AC834" s="2"/>
       <c r="AD834" s="2"/>
     </row>
-    <row r="835" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -27917,7 +27915,7 @@
       <c r="AC835" s="2"/>
       <c r="AD835" s="2"/>
     </row>
-    <row r="836" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -27949,7 +27947,7 @@
       <c r="AC836" s="2"/>
       <c r="AD836" s="2"/>
     </row>
-    <row r="837" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -27981,7 +27979,7 @@
       <c r="AC837" s="2"/>
       <c r="AD837" s="2"/>
     </row>
-    <row r="838" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -28013,7 +28011,7 @@
       <c r="AC838" s="2"/>
       <c r="AD838" s="2"/>
     </row>
-    <row r="839" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -28045,7 +28043,7 @@
       <c r="AC839" s="2"/>
       <c r="AD839" s="2"/>
     </row>
-    <row r="840" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -28077,7 +28075,7 @@
       <c r="AC840" s="2"/>
       <c r="AD840" s="2"/>
     </row>
-    <row r="841" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -28109,7 +28107,7 @@
       <c r="AC841" s="2"/>
       <c r="AD841" s="2"/>
     </row>
-    <row r="842" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -28141,7 +28139,7 @@
       <c r="AC842" s="2"/>
       <c r="AD842" s="2"/>
     </row>
-    <row r="843" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -28173,7 +28171,7 @@
       <c r="AC843" s="2"/>
       <c r="AD843" s="2"/>
     </row>
-    <row r="844" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -28205,7 +28203,7 @@
       <c r="AC844" s="2"/>
       <c r="AD844" s="2"/>
     </row>
-    <row r="845" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -28237,7 +28235,7 @@
       <c r="AC845" s="2"/>
       <c r="AD845" s="2"/>
     </row>
-    <row r="846" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -28269,7 +28267,7 @@
       <c r="AC846" s="2"/>
       <c r="AD846" s="2"/>
     </row>
-    <row r="847" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -28301,7 +28299,7 @@
       <c r="AC847" s="2"/>
       <c r="AD847" s="2"/>
     </row>
-    <row r="848" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -28333,7 +28331,7 @@
       <c r="AC848" s="2"/>
       <c r="AD848" s="2"/>
     </row>
-    <row r="849" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -28365,7 +28363,7 @@
       <c r="AC849" s="2"/>
       <c r="AD849" s="2"/>
     </row>
-    <row r="850" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -28397,7 +28395,7 @@
       <c r="AC850" s="2"/>
       <c r="AD850" s="2"/>
     </row>
-    <row r="851" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -28429,7 +28427,7 @@
       <c r="AC851" s="2"/>
       <c r="AD851" s="2"/>
     </row>
-    <row r="852" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -28461,7 +28459,7 @@
       <c r="AC852" s="2"/>
       <c r="AD852" s="2"/>
     </row>
-    <row r="853" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -28493,7 +28491,7 @@
       <c r="AC853" s="2"/>
       <c r="AD853" s="2"/>
     </row>
-    <row r="854" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -28525,7 +28523,7 @@
       <c r="AC854" s="2"/>
       <c r="AD854" s="2"/>
     </row>
-    <row r="855" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -28557,7 +28555,7 @@
       <c r="AC855" s="2"/>
       <c r="AD855" s="2"/>
     </row>
-    <row r="856" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -28589,7 +28587,7 @@
       <c r="AC856" s="2"/>
       <c r="AD856" s="2"/>
     </row>
-    <row r="857" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -28621,7 +28619,7 @@
       <c r="AC857" s="2"/>
       <c r="AD857" s="2"/>
     </row>
-    <row r="858" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -28653,7 +28651,7 @@
       <c r="AC858" s="2"/>
       <c r="AD858" s="2"/>
     </row>
-    <row r="859" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -28685,7 +28683,7 @@
       <c r="AC859" s="2"/>
       <c r="AD859" s="2"/>
     </row>
-    <row r="860" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -28717,7 +28715,7 @@
       <c r="AC860" s="2"/>
       <c r="AD860" s="2"/>
     </row>
-    <row r="861" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -28749,7 +28747,7 @@
       <c r="AC861" s="2"/>
       <c r="AD861" s="2"/>
     </row>
-    <row r="862" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -28781,7 +28779,7 @@
       <c r="AC862" s="2"/>
       <c r="AD862" s="2"/>
     </row>
-    <row r="863" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -28813,7 +28811,7 @@
       <c r="AC863" s="2"/>
       <c r="AD863" s="2"/>
     </row>
-    <row r="864" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -28845,7 +28843,7 @@
       <c r="AC864" s="2"/>
       <c r="AD864" s="2"/>
     </row>
-    <row r="865" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -28877,7 +28875,7 @@
       <c r="AC865" s="2"/>
       <c r="AD865" s="2"/>
     </row>
-    <row r="866" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -28909,7 +28907,7 @@
       <c r="AC866" s="2"/>
       <c r="AD866" s="2"/>
     </row>
-    <row r="867" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -28941,7 +28939,7 @@
       <c r="AC867" s="2"/>
       <c r="AD867" s="2"/>
     </row>
-    <row r="868" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -28973,7 +28971,7 @@
       <c r="AC868" s="2"/>
       <c r="AD868" s="2"/>
     </row>
-    <row r="869" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -29005,7 +29003,7 @@
       <c r="AC869" s="2"/>
       <c r="AD869" s="2"/>
     </row>
-    <row r="870" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -29037,7 +29035,7 @@
       <c r="AC870" s="2"/>
       <c r="AD870" s="2"/>
     </row>
-    <row r="871" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -29069,7 +29067,7 @@
       <c r="AC871" s="2"/>
       <c r="AD871" s="2"/>
     </row>
-    <row r="872" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -29101,7 +29099,7 @@
       <c r="AC872" s="2"/>
       <c r="AD872" s="2"/>
     </row>
-    <row r="873" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -29133,7 +29131,7 @@
       <c r="AC873" s="2"/>
       <c r="AD873" s="2"/>
     </row>
-    <row r="874" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -29165,7 +29163,7 @@
       <c r="AC874" s="2"/>
       <c r="AD874" s="2"/>
     </row>
-    <row r="875" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -29197,7 +29195,7 @@
       <c r="AC875" s="2"/>
       <c r="AD875" s="2"/>
     </row>
-    <row r="876" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -29229,7 +29227,7 @@
       <c r="AC876" s="2"/>
       <c r="AD876" s="2"/>
     </row>
-    <row r="877" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -29261,7 +29259,7 @@
       <c r="AC877" s="2"/>
       <c r="AD877" s="2"/>
     </row>
-    <row r="878" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -29293,7 +29291,7 @@
       <c r="AC878" s="2"/>
       <c r="AD878" s="2"/>
     </row>
-    <row r="879" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -29325,7 +29323,7 @@
       <c r="AC879" s="2"/>
       <c r="AD879" s="2"/>
     </row>
-    <row r="880" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -29357,7 +29355,7 @@
       <c r="AC880" s="2"/>
       <c r="AD880" s="2"/>
     </row>
-    <row r="881" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -29389,7 +29387,7 @@
       <c r="AC881" s="2"/>
       <c r="AD881" s="2"/>
     </row>
-    <row r="882" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -29421,7 +29419,7 @@
       <c r="AC882" s="2"/>
       <c r="AD882" s="2"/>
     </row>
-    <row r="883" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -29453,7 +29451,7 @@
       <c r="AC883" s="2"/>
       <c r="AD883" s="2"/>
     </row>
-    <row r="884" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -29485,7 +29483,7 @@
       <c r="AC884" s="2"/>
       <c r="AD884" s="2"/>
     </row>
-    <row r="885" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -29517,7 +29515,7 @@
       <c r="AC885" s="2"/>
       <c r="AD885" s="2"/>
     </row>
-    <row r="886" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -29549,7 +29547,7 @@
       <c r="AC886" s="2"/>
       <c r="AD886" s="2"/>
     </row>
-    <row r="887" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -29581,7 +29579,7 @@
       <c r="AC887" s="2"/>
       <c r="AD887" s="2"/>
     </row>
-    <row r="888" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -29613,7 +29611,7 @@
       <c r="AC888" s="2"/>
       <c r="AD888" s="2"/>
     </row>
-    <row r="889" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -29645,7 +29643,7 @@
       <c r="AC889" s="2"/>
       <c r="AD889" s="2"/>
     </row>
-    <row r="890" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -29677,7 +29675,7 @@
       <c r="AC890" s="2"/>
       <c r="AD890" s="2"/>
     </row>
-    <row r="891" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -29709,7 +29707,7 @@
       <c r="AC891" s="2"/>
       <c r="AD891" s="2"/>
     </row>
-    <row r="892" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -29741,7 +29739,7 @@
       <c r="AC892" s="2"/>
       <c r="AD892" s="2"/>
     </row>
-    <row r="893" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -29773,7 +29771,7 @@
       <c r="AC893" s="2"/>
       <c r="AD893" s="2"/>
     </row>
-    <row r="894" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -29805,7 +29803,7 @@
       <c r="AC894" s="2"/>
       <c r="AD894" s="2"/>
     </row>
-    <row r="895" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -29837,7 +29835,7 @@
       <c r="AC895" s="2"/>
       <c r="AD895" s="2"/>
     </row>
-    <row r="896" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -29869,7 +29867,7 @@
       <c r="AC896" s="2"/>
       <c r="AD896" s="2"/>
     </row>
-    <row r="897" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -29901,7 +29899,7 @@
       <c r="AC897" s="2"/>
       <c r="AD897" s="2"/>
     </row>
-    <row r="898" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -29933,7 +29931,7 @@
       <c r="AC898" s="2"/>
       <c r="AD898" s="2"/>
     </row>
-    <row r="899" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -29965,7 +29963,7 @@
       <c r="AC899" s="2"/>
       <c r="AD899" s="2"/>
     </row>
-    <row r="900" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -29997,7 +29995,7 @@
       <c r="AC900" s="2"/>
       <c r="AD900" s="2"/>
     </row>
-    <row r="901" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -30029,7 +30027,7 @@
       <c r="AC901" s="2"/>
       <c r="AD901" s="2"/>
     </row>
-    <row r="902" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -30061,7 +30059,7 @@
       <c r="AC902" s="2"/>
       <c r="AD902" s="2"/>
     </row>
-    <row r="903" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -30093,7 +30091,7 @@
       <c r="AC903" s="2"/>
       <c r="AD903" s="2"/>
     </row>
-    <row r="904" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -30125,7 +30123,7 @@
       <c r="AC904" s="2"/>
       <c r="AD904" s="2"/>
     </row>
-    <row r="905" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -30157,7 +30155,7 @@
       <c r="AC905" s="2"/>
       <c r="AD905" s="2"/>
     </row>
-    <row r="906" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -30189,7 +30187,7 @@
       <c r="AC906" s="2"/>
       <c r="AD906" s="2"/>
     </row>
-    <row r="907" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -30221,7 +30219,7 @@
       <c r="AC907" s="2"/>
       <c r="AD907" s="2"/>
     </row>
-    <row r="908" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -30253,7 +30251,7 @@
       <c r="AC908" s="2"/>
       <c r="AD908" s="2"/>
     </row>
-    <row r="909" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -30285,7 +30283,7 @@
       <c r="AC909" s="2"/>
       <c r="AD909" s="2"/>
     </row>
-    <row r="910" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -30317,7 +30315,7 @@
       <c r="AC910" s="2"/>
       <c r="AD910" s="2"/>
     </row>
-    <row r="911" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -30349,7 +30347,7 @@
       <c r="AC911" s="2"/>
       <c r="AD911" s="2"/>
     </row>
-    <row r="912" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -30381,7 +30379,7 @@
       <c r="AC912" s="2"/>
       <c r="AD912" s="2"/>
     </row>
-    <row r="913" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -30413,7 +30411,7 @@
       <c r="AC913" s="2"/>
       <c r="AD913" s="2"/>
     </row>
-    <row r="914" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -30445,7 +30443,7 @@
       <c r="AC914" s="2"/>
       <c r="AD914" s="2"/>
     </row>
-    <row r="915" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -30477,7 +30475,7 @@
       <c r="AC915" s="2"/>
       <c r="AD915" s="2"/>
     </row>
-    <row r="916" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -30509,7 +30507,7 @@
       <c r="AC916" s="2"/>
       <c r="AD916" s="2"/>
     </row>
-    <row r="917" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -30541,7 +30539,7 @@
       <c r="AC917" s="2"/>
       <c r="AD917" s="2"/>
     </row>
-    <row r="918" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -30573,7 +30571,7 @@
       <c r="AC918" s="2"/>
       <c r="AD918" s="2"/>
     </row>
-    <row r="919" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -30605,7 +30603,7 @@
       <c r="AC919" s="2"/>
       <c r="AD919" s="2"/>
     </row>
-    <row r="920" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -30637,7 +30635,7 @@
       <c r="AC920" s="2"/>
       <c r="AD920" s="2"/>
     </row>
-    <row r="921" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -30669,7 +30667,7 @@
       <c r="AC921" s="2"/>
       <c r="AD921" s="2"/>
     </row>
-    <row r="922" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -30701,7 +30699,7 @@
       <c r="AC922" s="2"/>
       <c r="AD922" s="2"/>
     </row>
-    <row r="923" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -30733,7 +30731,7 @@
       <c r="AC923" s="2"/>
       <c r="AD923" s="2"/>
     </row>
-    <row r="924" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -30765,7 +30763,7 @@
       <c r="AC924" s="2"/>
       <c r="AD924" s="2"/>
     </row>
-    <row r="925" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -30797,7 +30795,7 @@
       <c r="AC925" s="2"/>
       <c r="AD925" s="2"/>
     </row>
-    <row r="926" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -30829,7 +30827,7 @@
       <c r="AC926" s="2"/>
       <c r="AD926" s="2"/>
     </row>
-    <row r="927" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -30861,7 +30859,7 @@
       <c r="AC927" s="2"/>
       <c r="AD927" s="2"/>
     </row>
-    <row r="928" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -30893,7 +30891,7 @@
       <c r="AC928" s="2"/>
       <c r="AD928" s="2"/>
     </row>
-    <row r="929" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -30925,7 +30923,7 @@
       <c r="AC929" s="2"/>
       <c r="AD929" s="2"/>
     </row>
-    <row r="930" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -30957,7 +30955,7 @@
       <c r="AC930" s="2"/>
       <c r="AD930" s="2"/>
     </row>
-    <row r="931" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -30989,7 +30987,7 @@
       <c r="AC931" s="2"/>
       <c r="AD931" s="2"/>
     </row>
-    <row r="932" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -31021,7 +31019,7 @@
       <c r="AC932" s="2"/>
       <c r="AD932" s="2"/>
     </row>
-    <row r="933" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -31053,7 +31051,7 @@
       <c r="AC933" s="2"/>
       <c r="AD933" s="2"/>
     </row>
-    <row r="934" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -31085,7 +31083,7 @@
       <c r="AC934" s="2"/>
       <c r="AD934" s="2"/>
     </row>
-    <row r="935" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -31117,7 +31115,7 @@
       <c r="AC935" s="2"/>
       <c r="AD935" s="2"/>
     </row>
-    <row r="936" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -31149,7 +31147,7 @@
       <c r="AC936" s="2"/>
       <c r="AD936" s="2"/>
     </row>
-    <row r="937" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -31181,7 +31179,7 @@
       <c r="AC937" s="2"/>
       <c r="AD937" s="2"/>
     </row>
-    <row r="938" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -31213,7 +31211,7 @@
       <c r="AC938" s="2"/>
       <c r="AD938" s="2"/>
     </row>
-    <row r="939" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -31245,7 +31243,7 @@
       <c r="AC939" s="2"/>
       <c r="AD939" s="2"/>
     </row>
-    <row r="940" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -31277,7 +31275,7 @@
       <c r="AC940" s="2"/>
       <c r="AD940" s="2"/>
     </row>
-    <row r="941" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -31309,7 +31307,7 @@
       <c r="AC941" s="2"/>
       <c r="AD941" s="2"/>
     </row>
-    <row r="942" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -31341,7 +31339,7 @@
       <c r="AC942" s="2"/>
       <c r="AD942" s="2"/>
     </row>
-    <row r="943" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -31373,7 +31371,7 @@
       <c r="AC943" s="2"/>
       <c r="AD943" s="2"/>
     </row>
-    <row r="944" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -31405,7 +31403,7 @@
       <c r="AC944" s="2"/>
       <c r="AD944" s="2"/>
     </row>
-    <row r="945" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -31437,7 +31435,7 @@
       <c r="AC945" s="2"/>
       <c r="AD945" s="2"/>
     </row>
-    <row r="946" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -31469,7 +31467,7 @@
       <c r="AC946" s="2"/>
       <c r="AD946" s="2"/>
     </row>
-    <row r="947" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -31501,7 +31499,7 @@
       <c r="AC947" s="2"/>
       <c r="AD947" s="2"/>
     </row>
-    <row r="948" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -31533,7 +31531,7 @@
       <c r="AC948" s="2"/>
       <c r="AD948" s="2"/>
     </row>
-    <row r="949" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -31565,7 +31563,7 @@
       <c r="AC949" s="2"/>
       <c r="AD949" s="2"/>
     </row>
-    <row r="950" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -31597,7 +31595,7 @@
       <c r="AC950" s="2"/>
       <c r="AD950" s="2"/>
     </row>
-    <row r="951" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -31629,7 +31627,7 @@
       <c r="AC951" s="2"/>
       <c r="AD951" s="2"/>
     </row>
-    <row r="952" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -31661,7 +31659,7 @@
       <c r="AC952" s="2"/>
       <c r="AD952" s="2"/>
     </row>
-    <row r="953" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -31693,7 +31691,7 @@
       <c r="AC953" s="2"/>
       <c r="AD953" s="2"/>
     </row>
-    <row r="954" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -31725,7 +31723,7 @@
       <c r="AC954" s="2"/>
       <c r="AD954" s="2"/>
     </row>
-    <row r="955" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -31757,7 +31755,7 @@
       <c r="AC955" s="2"/>
       <c r="AD955" s="2"/>
     </row>
-    <row r="956" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -31789,7 +31787,7 @@
       <c r="AC956" s="2"/>
       <c r="AD956" s="2"/>
     </row>
-    <row r="957" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -31821,7 +31819,7 @@
       <c r="AC957" s="2"/>
       <c r="AD957" s="2"/>
     </row>
-    <row r="958" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -31853,7 +31851,7 @@
       <c r="AC958" s="2"/>
       <c r="AD958" s="2"/>
     </row>
-    <row r="959" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -31885,7 +31883,7 @@
       <c r="AC959" s="2"/>
       <c r="AD959" s="2"/>
     </row>
-    <row r="960" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -31917,7 +31915,7 @@
       <c r="AC960" s="2"/>
       <c r="AD960" s="2"/>
     </row>
-    <row r="961" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -31949,7 +31947,7 @@
       <c r="AC961" s="2"/>
       <c r="AD961" s="2"/>
     </row>
-    <row r="962" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -31981,7 +31979,7 @@
       <c r="AC962" s="2"/>
       <c r="AD962" s="2"/>
     </row>
-    <row r="963" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -32013,7 +32011,7 @@
       <c r="AC963" s="2"/>
       <c r="AD963" s="2"/>
     </row>
-    <row r="964" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -32045,7 +32043,7 @@
       <c r="AC964" s="2"/>
       <c r="AD964" s="2"/>
     </row>
-    <row r="965" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -32077,7 +32075,7 @@
       <c r="AC965" s="2"/>
       <c r="AD965" s="2"/>
     </row>
-    <row r="966" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -32109,7 +32107,7 @@
       <c r="AC966" s="2"/>
       <c r="AD966" s="2"/>
     </row>
-    <row r="967" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -32141,7 +32139,7 @@
       <c r="AC967" s="2"/>
       <c r="AD967" s="2"/>
     </row>
-    <row r="968" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -32173,7 +32171,7 @@
       <c r="AC968" s="2"/>
       <c r="AD968" s="2"/>
     </row>
-    <row r="969" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -32205,7 +32203,7 @@
       <c r="AC969" s="2"/>
       <c r="AD969" s="2"/>
     </row>
-    <row r="970" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -32237,7 +32235,7 @@
       <c r="AC970" s="2"/>
       <c r="AD970" s="2"/>
     </row>
-    <row r="971" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -32269,7 +32267,7 @@
       <c r="AC971" s="2"/>
       <c r="AD971" s="2"/>
     </row>
-    <row r="972" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -32301,7 +32299,7 @@
       <c r="AC972" s="2"/>
       <c r="AD972" s="2"/>
     </row>
-    <row r="973" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -32333,7 +32331,7 @@
       <c r="AC973" s="2"/>
       <c r="AD973" s="2"/>
     </row>
-    <row r="974" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -32365,7 +32363,7 @@
       <c r="AC974" s="2"/>
       <c r="AD974" s="2"/>
     </row>
-    <row r="975" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -32397,7 +32395,7 @@
       <c r="AC975" s="2"/>
       <c r="AD975" s="2"/>
     </row>
-    <row r="976" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -32429,7 +32427,7 @@
       <c r="AC976" s="2"/>
       <c r="AD976" s="2"/>
     </row>
-    <row r="977" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -32461,7 +32459,7 @@
       <c r="AC977" s="2"/>
       <c r="AD977" s="2"/>
     </row>
-    <row r="978" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -32493,7 +32491,7 @@
       <c r="AC978" s="2"/>
       <c r="AD978" s="2"/>
     </row>
-    <row r="979" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -32525,7 +32523,7 @@
       <c r="AC979" s="2"/>
       <c r="AD979" s="2"/>
     </row>
-    <row r="980" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -32557,7 +32555,7 @@
       <c r="AC980" s="2"/>
       <c r="AD980" s="2"/>
     </row>
-    <row r="981" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -32589,7 +32587,7 @@
       <c r="AC981" s="2"/>
       <c r="AD981" s="2"/>
     </row>
-    <row r="982" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -32621,7 +32619,7 @@
       <c r="AC982" s="2"/>
       <c r="AD982" s="2"/>
     </row>
-    <row r="983" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -32653,7 +32651,7 @@
       <c r="AC983" s="2"/>
       <c r="AD983" s="2"/>
     </row>
-    <row r="984" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -32685,7 +32683,7 @@
       <c r="AC984" s="2"/>
       <c r="AD984" s="2"/>
     </row>
-    <row r="985" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -32717,7 +32715,7 @@
       <c r="AC985" s="2"/>
       <c r="AD985" s="2"/>
     </row>
-    <row r="986" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -32749,7 +32747,7 @@
       <c r="AC986" s="2"/>
       <c r="AD986" s="2"/>
     </row>
-    <row r="987" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -32781,7 +32779,7 @@
       <c r="AC987" s="2"/>
       <c r="AD987" s="2"/>
     </row>
-    <row r="988" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -32813,7 +32811,7 @@
       <c r="AC988" s="2"/>
       <c r="AD988" s="2"/>
     </row>
-    <row r="989" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -32845,7 +32843,7 @@
       <c r="AC989" s="2"/>
       <c r="AD989" s="2"/>
     </row>
-    <row r="990" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -32877,7 +32875,7 @@
       <c r="AC990" s="2"/>
       <c r="AD990" s="2"/>
     </row>
-    <row r="991" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -32909,7 +32907,7 @@
       <c r="AC991" s="2"/>
       <c r="AD991" s="2"/>
     </row>
-    <row r="992" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -32941,7 +32939,7 @@
       <c r="AC992" s="2"/>
       <c r="AD992" s="2"/>
     </row>
-    <row r="993" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -32973,7 +32971,7 @@
       <c r="AC993" s="2"/>
       <c r="AD993" s="2"/>
     </row>
-    <row r="994" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -33005,7 +33003,7 @@
       <c r="AC994" s="2"/>
       <c r="AD994" s="2"/>
     </row>
-    <row r="995" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -33037,7 +33035,7 @@
       <c r="AC995" s="2"/>
       <c r="AD995" s="2"/>
     </row>
-    <row r="996" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -33069,7 +33067,7 @@
       <c r="AC996" s="2"/>
       <c r="AD996" s="2"/>
     </row>
-    <row r="997" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -33101,7 +33099,7 @@
       <c r="AC997" s="2"/>
       <c r="AD997" s="2"/>
     </row>
-    <row r="998" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -33133,7 +33131,7 @@
       <c r="AC998" s="2"/>
       <c r="AD998" s="2"/>
     </row>
-    <row r="999" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -33165,7 +33163,7 @@
       <c r="AC999" s="2"/>
       <c r="AD999" s="2"/>
     </row>
-    <row r="1000" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -33197,7 +33195,7 @@
       <c r="AC1000" s="2"/>
       <c r="AD1000" s="2"/>
     </row>
-    <row r="1001" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="2"/>
@@ -33229,7 +33227,7 @@
       <c r="AC1001" s="2"/>
       <c r="AD1001" s="2"/>
     </row>
-    <row r="1002" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1002" s="2"/>
       <c r="B1002" s="2"/>
       <c r="C1002" s="2"/>
@@ -33261,7 +33259,7 @@
       <c r="AC1002" s="2"/>
       <c r="AD1002" s="2"/>
     </row>
-    <row r="1003" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1003" s="2"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="2"/>
@@ -33293,7 +33291,7 @@
       <c r="AC1003" s="2"/>
       <c r="AD1003" s="2"/>
     </row>
-    <row r="1004" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1004" s="2"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="2"/>
@@ -33325,7 +33323,7 @@
       <c r="AC1004" s="2"/>
       <c r="AD1004" s="2"/>
     </row>
-    <row r="1005" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1005" s="2"/>
       <c r="B1005" s="2"/>
       <c r="C1005" s="2"/>
@@ -33357,7 +33355,7 @@
       <c r="AC1005" s="2"/>
       <c r="AD1005" s="2"/>
     </row>
-    <row r="1006" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1006" s="2"/>
       <c r="B1006" s="2"/>
       <c r="C1006" s="2"/>
@@ -33409,12 +33407,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -33422,7 +33420,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -33431,7 +33429,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -33439,7 +33437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -33447,7 +33445,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -33456,7 +33454,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -33465,7 +33463,7 @@
         <v>3.5600000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -33474,7 +33472,7 @@
         <v>1.1866666666666668</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -33483,7 +33481,7 @@
         <v>1.4400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>52</v>
       </c>
@@ -33508,23 +33506,23 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -33551,7 +33549,7 @@
       <c r="J1" s="1"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -33559,16 +33557,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
+        <v>90</v>
+      </c>
+      <c r="E2" s="3">
         <v>85</v>
       </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>99</v>
-      </c>
       <c r="F2" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -33578,7 +33576,7 @@
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -33586,10 +33584,12 @@
         <v>61</v>
       </c>
       <c r="C3" s="3">
-        <v>450</v>
+        <f>20*23</f>
+        <v>460</v>
       </c>
       <c r="D3" s="3">
-        <v>720</v>
+        <f>30*23</f>
+        <v>690</v>
       </c>
       <c r="E3" s="3">
         <v>550</v>
@@ -33605,7 +33605,7 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -33619,40 +33619,40 @@
         <v>10000000</v>
       </c>
       <c r="E4" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="3">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D5" s="3">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="E5" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -33666,16 +33666,16 @@
         <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -33689,16 +33689,16 @@
         <v>18.5</v>
       </c>
       <c r="E7" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18.5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -33712,16 +33712,16 @@
         <v>10000000</v>
       </c>
       <c r="E8" s="3">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>10000000</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -33747,46 +33747,50 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <f>+C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
